--- a/newTest6.xlsx
+++ b/newTest6.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PODO\Documents\GitHub\privateTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="23565"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="jmWJ6MSUwHmfQOhP6pWAN0O1RPBsAdwjci7vOdJrPco="/>
@@ -1283,18 +1291,6 @@
     <t>The production cost [[p(x)]], in dollars, to produce \i x\i0  units of an item when materials cost $2 per item is given by [[p(x) = 2x + 150]]. What is the total cost to produce 2,000 units of this item?</t>
   </si>
   <si>
-    <t>[[$1,850]]</t>
-  </si>
-  <si>
-    <t>[[$2,300]]</t>
-  </si>
-  <si>
-    <t>[[$3,850]]</t>
-  </si>
-  <si>
-    <t>[[$4,150]]</t>
-  </si>
-  <si>
     <t>The function [[f]] is given as [[f(x) = \frac{2}{3}x]] . When [[x = 6]], what is the value of [[f(x)]]?</t>
   </si>
   <si>
@@ -1403,47 +1399,80 @@
   </si>
   <si>
     <t>[[\frac{65}{33}]]</t>
+  </si>
+  <si>
+    <t>[[\textdollar 1,850]]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\textdollar 2,300]]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\textdollar 3,850]]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\textdollar 4,150]]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1451,7 +1480,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1467,101 +1496,113 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1751,31 +1792,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.29"/>
-    <col customWidth="1" min="2" max="2" width="48.29"/>
-    <col customWidth="1" min="3" max="3" width="49.29"/>
-    <col customWidth="1" min="4" max="4" width="20.86"/>
-    <col customWidth="1" min="5" max="5" width="28.14"/>
-    <col customWidth="1" min="6" max="6" width="25.43"/>
-    <col customWidth="1" min="7" max="7" width="27.71"/>
-    <col customWidth="1" min="8" max="8" width="9.0"/>
-    <col customWidth="1" min="9" max="24" width="8.71"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24" ht="82.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1858,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" ht="49.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1900,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" ht="115.5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1942,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="198">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1943,7 +1984,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="198">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1985,7 +2026,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="363">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2027,7 +2068,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="247.5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2069,7 +2110,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="214.5">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2111,7 +2152,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="214.5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2153,7 +2194,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="264">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2195,7 +2236,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="231">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -2237,7 +2278,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="198">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -2279,7 +2320,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="231">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -2321,7 +2362,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="210">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -2363,7 +2404,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="180">
       <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
@@ -2405,7 +2446,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="75">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2447,7 +2488,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="120">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2489,7 +2530,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="115.5">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2531,7 +2572,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="99">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2573,7 +2614,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="115.5">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2615,7 +2656,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="165">
       <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
@@ -2657,7 +2698,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="115.5">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +2740,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="148.5">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2782,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="165">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2783,7 +2824,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="115.5">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2866,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="132">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2908,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="313.5">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
@@ -2909,7 +2950,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="231">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -2951,7 +2992,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2991,7 +3032,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3031,7 +3072,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3112,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -3111,7 +3152,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="16.5">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -3151,7 +3192,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:24" ht="16.5">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -3191,7 +3232,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="99">
       <c r="A35" s="2" t="s">
         <v>165</v>
       </c>
@@ -3219,7 +3260,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="115.5">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3261,7 +3302,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:24" ht="181.5">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3303,7 +3344,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:24" ht="115.5">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -3345,7 +3386,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:24" ht="181.5">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -3387,7 +3428,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:24" ht="33">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -3429,7 +3470,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:24" ht="132">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -3471,7 +3512,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:24" ht="115.5">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -3513,7 +3554,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:24" ht="148.5">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -3555,7 +3596,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:24" ht="280.5">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -3597,7 +3638,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:24" ht="115.5">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -3639,7 +3680,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:24" ht="132">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -3681,7 +3722,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:24" ht="115.5">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -3723,7 +3764,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:24" ht="181.5">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -3765,7 +3806,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:24" ht="214.5">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -3807,7 +3848,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:24" ht="198">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -3849,7 +3890,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:24" ht="148.5">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -3891,7 +3932,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:24" ht="66">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -3933,7 +3974,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:24" ht="165">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -3975,7 +4016,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:24" ht="132">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -4017,7 +4058,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:24" ht="99">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -4059,7 +4100,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:24" ht="132">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -4101,7 +4142,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:24" ht="148.5">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -4143,7 +4184,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:24" ht="132">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -4185,7 +4226,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:24" ht="165">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4227,7 +4268,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:24" ht="165">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -4269,7 +4310,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:24" ht="132">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4311,7 +4352,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:24" ht="379.5">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -4353,7 +4394,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:24" ht="16.5">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4393,7 +4434,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:24" ht="16.5">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -4433,7 +4474,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:24" ht="16.5">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -4473,7 +4514,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:24" ht="16.5">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -4513,7 +4554,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:24" ht="16.5">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -4553,7 +4594,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:24" ht="16.5">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -4593,7 +4634,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:24" ht="49.5">
       <c r="A69" s="1" t="s">
         <v>306</v>
       </c>
@@ -4621,7 +4662,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:24" ht="66">
       <c r="A70" s="2" t="s">
         <v>63</v>
       </c>
@@ -4661,7 +4702,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:24" ht="33">
       <c r="A71" s="1" t="s">
         <v>308</v>
       </c>
@@ -4701,7 +4742,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:24" ht="115.5">
       <c r="A72" s="1" t="s">
         <v>308</v>
       </c>
@@ -4741,7 +4782,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:24" ht="49.5">
       <c r="A73" s="1" t="s">
         <v>308</v>
       </c>
@@ -4781,7 +4822,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:24" ht="82.5">
       <c r="A74" s="2" t="s">
         <v>63</v>
       </c>
@@ -4821,7 +4862,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:24" ht="49.5">
       <c r="A75" s="2" t="s">
         <v>63</v>
       </c>
@@ -4855,7 +4896,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:24" ht="148.5">
       <c r="A76" s="1" t="s">
         <v>308</v>
       </c>
@@ -4895,7 +4936,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:24" ht="33">
       <c r="A77" s="1" t="s">
         <v>308</v>
       </c>
@@ -4908,7 +4949,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="2">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4927,7 +4968,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" ht="75.0" customHeight="1">
+    <row r="78" spans="1:24" ht="75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>308</v>
       </c>
@@ -4967,7 +5008,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" ht="118.5" customHeight="1">
+    <row r="79" spans="1:24" ht="118.5" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>308</v>
       </c>
@@ -5007,7 +5048,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" ht="45.75" customHeight="1">
+    <row r="80" spans="1:24" ht="45.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>63</v>
       </c>
@@ -5016,16 +5057,16 @@
         <v>348</v>
       </c>
       <c r="D80" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E80" s="19">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="F80" s="19">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G80" s="19">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>3</v>
@@ -5047,7 +5088,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" ht="49.5" customHeight="1">
+    <row r="81" spans="1:24" ht="49.5" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>308</v>
       </c>
@@ -5056,16 +5097,16 @@
         <v>349</v>
       </c>
       <c r="D81" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E81" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F81" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G81" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>3</v>
@@ -5087,7 +5128,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" ht="69.75" customHeight="1">
+    <row r="82" spans="1:24" ht="69.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>63</v>
       </c>
@@ -5127,7 +5168,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" ht="80.25" customHeight="1">
+    <row r="83" spans="1:24" ht="80.25" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>308</v>
       </c>
@@ -5136,16 +5177,16 @@
         <v>355</v>
       </c>
       <c r="D83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G83" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>3</v>
@@ -5167,7 +5208,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" ht="63.0" customHeight="1">
+    <row r="84" spans="1:24" ht="63" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>308</v>
       </c>
@@ -5180,7 +5221,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="18">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -5199,7 +5240,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" ht="58.5" customHeight="1">
+    <row r="85" spans="1:24" ht="58.5" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>308</v>
       </c>
@@ -5239,7 +5280,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" ht="33.75" customHeight="1">
+    <row r="86" spans="1:24" ht="33.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>308</v>
       </c>
@@ -5248,16 +5289,16 @@
         <v>362</v>
       </c>
       <c r="D86" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E86" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F86" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G86" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>5</v>
@@ -5279,7 +5320,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" ht="96.0" customHeight="1">
+    <row r="87" spans="1:24" ht="96" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>308</v>
       </c>
@@ -5290,16 +5331,16 @@
         <v>364</v>
       </c>
       <c r="D87" s="19">
-        <v>-20.0</v>
+        <v>-20</v>
       </c>
       <c r="E87" s="19">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="F87" s="19">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G87" s="19">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>5</v>
@@ -5321,7 +5362,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" ht="75.75" customHeight="1">
+    <row r="88" spans="1:24" ht="75.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>308</v>
       </c>
@@ -5353,7 +5394,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" ht="37.5" customHeight="1">
+    <row r="89" spans="1:24" ht="37.5" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>308</v>
       </c>
@@ -5385,7 +5426,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" ht="49.5" customHeight="1">
+    <row r="90" spans="1:24" ht="49.5" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>308</v>
       </c>
@@ -5400,7 +5441,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -5419,7 +5460,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" ht="30.75" customHeight="1">
+    <row r="91" spans="1:24" ht="30.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>308</v>
       </c>
@@ -5453,7 +5494,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" ht="39.0" customHeight="1">
+    <row r="92" spans="1:24" ht="39" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>308</v>
       </c>
@@ -5493,7 +5534,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" ht="53.25" customHeight="1">
+    <row r="93" spans="1:24" ht="53.25" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>308</v>
       </c>
@@ -5533,7 +5574,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" ht="53.25" customHeight="1">
+    <row r="94" spans="1:24" ht="53.25" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>308</v>
       </c>
@@ -5573,7 +5614,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:24" ht="16.5">
       <c r="A95" s="1" t="s">
         <v>308</v>
       </c>
@@ -5613,7 +5654,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" ht="67.5" customHeight="1">
+    <row r="96" spans="1:24" ht="67.5" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>308</v>
       </c>
@@ -5653,7 +5694,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" ht="38.25" customHeight="1">
+    <row r="97" spans="1:24" ht="38.25" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>372</v>
       </c>
@@ -5681,7 +5722,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" ht="37.5" customHeight="1">
+    <row r="98" spans="1:24" ht="37.5" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>308</v>
       </c>
@@ -5692,16 +5733,16 @@
         <v>374</v>
       </c>
       <c r="D98" s="18">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E98" s="18">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F98" s="18">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="G98" s="18">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="H98" s="18" t="s">
         <v>5</v>
@@ -5723,7 +5764,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" ht="30.0" customHeight="1">
+    <row r="99" spans="1:24" ht="30" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>308</v>
       </c>
@@ -5736,7 +5777,7 @@
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="18">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -5755,7 +5796,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" ht="33.75" customHeight="1">
+    <row r="100" spans="1:24" ht="33.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>308</v>
       </c>
@@ -5764,13 +5805,13 @@
         <v>376</v>
       </c>
       <c r="D100" s="18">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E100" s="18">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="F100" s="18">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>377</v>
@@ -5795,7 +5836,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" ht="42.75" customHeight="1">
+    <row r="101" spans="1:24" ht="42.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>308</v>
       </c>
@@ -5837,7 +5878,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" ht="37.5" customHeight="1">
+    <row r="102" spans="1:24" ht="37.5" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>308</v>
       </c>
@@ -5877,7 +5918,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" ht="52.5" customHeight="1">
+    <row r="103" spans="1:24" ht="52.5" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>308</v>
       </c>
@@ -5886,16 +5927,16 @@
         <v>389</v>
       </c>
       <c r="D103" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E103" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F103" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G103" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="H103" s="18" t="s">
         <v>4</v>
@@ -5917,7 +5958,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" ht="54.0" customHeight="1">
+    <row r="104" spans="1:24" ht="54" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>308</v>
       </c>
@@ -5930,7 +5971,7 @@
       <c r="F104" s="22"/>
       <c r="G104" s="1"/>
       <c r="H104" s="18">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -5949,7 +5990,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" ht="47.25" customHeight="1">
+    <row r="105" spans="1:24" ht="47.25" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>308</v>
       </c>
@@ -5958,16 +5999,16 @@
         <v>391</v>
       </c>
       <c r="D105" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E105" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F105" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="G105" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H105" s="18" t="s">
         <v>3</v>
@@ -5989,7 +6030,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" ht="54.0" customHeight="1">
+    <row r="106" spans="1:24" ht="54" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>308</v>
       </c>
@@ -6002,7 +6043,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="18">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -6021,7 +6062,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" ht="46.5" customHeight="1">
+    <row r="107" spans="1:24" ht="46.5" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>308</v>
       </c>
@@ -6030,16 +6071,16 @@
         <v>393</v>
       </c>
       <c r="D107" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E107" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F107" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G107" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H107" s="18" t="s">
         <v>6</v>
@@ -6061,7 +6102,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" ht="31.5" customHeight="1">
+    <row r="108" spans="1:24" ht="31.5" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>308</v>
       </c>
@@ -6070,16 +6111,16 @@
         <v>394</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="H108" s="18" t="s">
         <v>6</v>
@@ -6101,25 +6142,25 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" ht="98.25" customHeight="1">
+    <row r="109" spans="1:24" ht="98.25" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D109" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F109" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G109" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H109" s="18" t="s">
         <v>4</v>
@@ -6141,20 +6182,20 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" ht="65.25" customHeight="1">
+    <row r="110" spans="1:24" ht="65.25" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="18">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -6173,27 +6214,27 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" ht="117.0" customHeight="1">
+    <row r="111" spans="1:24" ht="117" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="H111" s="18" t="s">
         <v>3</v>
@@ -6215,25 +6256,25 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" ht="63.75" customHeight="1">
+    <row r="112" spans="1:24" ht="63.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D112" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E112" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="F112" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="G112" s="2">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="H112" s="18" t="s">
         <v>6</v>
@@ -6255,25 +6296,25 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" ht="68.25" customHeight="1">
+    <row r="113" spans="1:24" ht="68.25" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="G113" s="17" t="s">
         <v>408</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="F113" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="G113" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="H113" s="18" t="s">
         <v>4</v>
@@ -6295,25 +6336,25 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" ht="45.75" customHeight="1">
+    <row r="114" spans="1:24" ht="45.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="H114" s="18" t="s">
         <v>4</v>
@@ -6335,25 +6376,25 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" ht="67.5" customHeight="1">
+    <row r="115" spans="1:24" ht="67.5" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D115" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E115" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="F115" s="13">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G115" s="13">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="H115" s="18" t="s">
         <v>5</v>
@@ -6375,13 +6416,13 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" ht="163.5" customHeight="1">
+    <row r="116" spans="1:24" ht="163.5" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
@@ -6415,25 +6456,25 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" ht="45.0" customHeight="1">
+    <row r="117" spans="1:24" ht="45" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="H117" s="18" t="s">
         <v>3</v>
@@ -6455,25 +6496,25 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" ht="44.25" customHeight="1">
+    <row r="118" spans="1:24" ht="44.25" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="H118" s="18" t="s">
         <v>6</v>
@@ -6495,25 +6536,25 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" ht="83.25" customHeight="1">
+    <row r="119" spans="1:24" ht="83.25" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="H119" s="18" t="s">
         <v>3</v>
@@ -6535,7 +6576,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" ht="16.5" customHeight="1">
+    <row r="120" spans="1:24" ht="16.5" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>308</v>
       </c>
@@ -6575,7 +6616,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" ht="16.5" customHeight="1">
+    <row r="121" spans="1:24" ht="16.5" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>308</v>
       </c>
@@ -6615,7 +6656,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" ht="16.5" customHeight="1">
+    <row r="122" spans="1:24" ht="16.5" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>308</v>
       </c>
@@ -6655,7 +6696,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" ht="16.5" customHeight="1">
+    <row r="123" spans="1:24" ht="16.5" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>308</v>
       </c>
@@ -6695,7 +6736,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" ht="16.5" customHeight="1">
+    <row r="124" spans="1:24" ht="16.5" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>308</v>
       </c>
@@ -6735,7 +6776,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" ht="16.5" customHeight="1">
+    <row r="125" spans="1:24" ht="16.5" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6761,7 +6802,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" ht="16.5" customHeight="1">
+    <row r="126" spans="1:24" ht="16.5" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6787,7 +6828,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" ht="16.5" customHeight="1">
+    <row r="127" spans="1:24" ht="16.5" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6813,7 +6854,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" ht="16.5" customHeight="1">
+    <row r="128" spans="1:24" ht="16.5" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6839,7 +6880,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" ht="16.5" customHeight="1">
+    <row r="129" spans="1:24" ht="16.5" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6865,7 +6906,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" ht="16.5" customHeight="1">
+    <row r="130" spans="1:24" ht="16.5" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6891,7 +6932,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" ht="16.5" customHeight="1">
+    <row r="131" spans="1:24" ht="16.5" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6917,7 +6958,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" ht="16.5" customHeight="1">
+    <row r="132" spans="1:24" ht="16.5" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6943,7 +6984,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" ht="16.5" customHeight="1">
+    <row r="133" spans="1:24" ht="16.5" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6969,7 +7010,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" ht="16.5" customHeight="1">
+    <row r="134" spans="1:24" ht="16.5" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6995,7 +7036,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" ht="16.5" customHeight="1">
+    <row r="135" spans="1:24" ht="16.5" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7021,7 +7062,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" ht="16.5" customHeight="1">
+    <row r="136" spans="1:24" ht="16.5" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7047,7 +7088,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" ht="16.5" customHeight="1">
+    <row r="137" spans="1:24" ht="16.5" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7073,7 +7114,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" ht="16.5" customHeight="1">
+    <row r="138" spans="1:24" ht="16.5" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7099,7 +7140,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" ht="16.5" customHeight="1">
+    <row r="139" spans="1:24" ht="16.5" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7125,7 +7166,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" ht="16.5" customHeight="1">
+    <row r="140" spans="1:24" ht="16.5" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7151,7 +7192,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" ht="16.5" customHeight="1">
+    <row r="141" spans="1:24" ht="16.5" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7177,7 +7218,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" ht="16.5" customHeight="1">
+    <row r="142" spans="1:24" ht="16.5" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7203,7 +7244,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" ht="16.5" customHeight="1">
+    <row r="143" spans="1:24" ht="16.5" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7229,7 +7270,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" ht="16.5" customHeight="1">
+    <row r="144" spans="1:24" ht="16.5" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7255,7 +7296,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" ht="16.5" customHeight="1">
+    <row r="145" spans="1:24" ht="16.5" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7281,7 +7322,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" ht="16.5" customHeight="1">
+    <row r="146" spans="1:24" ht="16.5" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7307,7 +7348,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" ht="16.5" customHeight="1">
+    <row r="147" spans="1:24" ht="16.5" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7333,7 +7374,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" ht="16.5" customHeight="1">
+    <row r="148" spans="1:24" ht="16.5" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7359,7 +7400,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" ht="16.5" customHeight="1">
+    <row r="149" spans="1:24" ht="16.5" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7385,7 +7426,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" ht="16.5" customHeight="1">
+    <row r="150" spans="1:24" ht="16.5" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7411,7 +7452,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" ht="16.5" customHeight="1">
+    <row r="151" spans="1:24" ht="16.5" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7437,7 +7478,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" ht="16.5" customHeight="1">
+    <row r="152" spans="1:24" ht="16.5" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7463,7 +7504,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" ht="16.5" customHeight="1">
+    <row r="153" spans="1:24" ht="16.5" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -7489,7 +7530,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" ht="16.5" customHeight="1">
+    <row r="154" spans="1:24" ht="16.5" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7515,7 +7556,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" ht="16.5" customHeight="1">
+    <row r="155" spans="1:24" ht="16.5" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7541,7 +7582,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" ht="16.5" customHeight="1">
+    <row r="156" spans="1:24" ht="16.5" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7567,7 +7608,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" ht="16.5" customHeight="1">
+    <row r="157" spans="1:24" ht="16.5" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7593,7 +7634,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" ht="16.5" customHeight="1">
+    <row r="158" spans="1:24" ht="16.5" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7619,7 +7660,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" ht="16.5" customHeight="1">
+    <row r="159" spans="1:24" ht="16.5" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7645,7 +7686,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" ht="16.5" customHeight="1">
+    <row r="160" spans="1:24" ht="16.5" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7671,7 +7712,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" ht="16.5" customHeight="1">
+    <row r="161" spans="1:24" ht="16.5" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7697,7 +7738,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" ht="16.5" customHeight="1">
+    <row r="162" spans="1:24" ht="16.5" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7723,7 +7764,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" ht="16.5" customHeight="1">
+    <row r="163" spans="1:24" ht="16.5" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7749,7 +7790,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" ht="16.5" customHeight="1">
+    <row r="164" spans="1:24" ht="16.5" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7775,7 +7816,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" ht="16.5" customHeight="1">
+    <row r="165" spans="1:24" ht="16.5" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7801,7 +7842,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" ht="16.5" customHeight="1">
+    <row r="166" spans="1:24" ht="16.5" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7827,7 +7868,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" ht="16.5" customHeight="1">
+    <row r="167" spans="1:24" ht="16.5" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7853,7 +7894,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" ht="16.5" customHeight="1">
+    <row r="168" spans="1:24" ht="16.5" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7879,7 +7920,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" ht="16.5" customHeight="1">
+    <row r="169" spans="1:24" ht="16.5" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7905,7 +7946,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" ht="16.5" customHeight="1">
+    <row r="170" spans="1:24" ht="16.5" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7931,7 +7972,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" ht="16.5" customHeight="1">
+    <row r="171" spans="1:24" ht="16.5" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7957,7 +7998,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" ht="16.5" customHeight="1">
+    <row r="172" spans="1:24" ht="16.5" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7983,7 +8024,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" ht="16.5" customHeight="1">
+    <row r="173" spans="1:24" ht="16.5" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8009,7 +8050,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" ht="16.5" customHeight="1">
+    <row r="174" spans="1:24" ht="16.5" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8035,7 +8076,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" ht="16.5" customHeight="1">
+    <row r="175" spans="1:24" ht="16.5" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8061,7 +8102,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" ht="16.5" customHeight="1">
+    <row r="176" spans="1:24" ht="16.5" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8087,7 +8128,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" ht="16.5" customHeight="1">
+    <row r="177" spans="1:24" ht="16.5" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8113,7 +8154,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" ht="16.5" customHeight="1">
+    <row r="178" spans="1:24" ht="16.5" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8139,7 +8180,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" ht="16.5" customHeight="1">
+    <row r="179" spans="1:24" ht="16.5" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8165,7 +8206,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" ht="16.5" customHeight="1">
+    <row r="180" spans="1:24" ht="16.5" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8191,7 +8232,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" ht="16.5" customHeight="1">
+    <row r="181" spans="1:24" ht="16.5" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8217,7 +8258,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" ht="16.5" customHeight="1">
+    <row r="182" spans="1:24" ht="16.5" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8243,7 +8284,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" ht="16.5" customHeight="1">
+    <row r="183" spans="1:24" ht="16.5" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -8269,7 +8310,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" ht="16.5" customHeight="1">
+    <row r="184" spans="1:24" ht="16.5" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -8295,7 +8336,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" ht="16.5" customHeight="1">
+    <row r="185" spans="1:24" ht="16.5" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -8321,7 +8362,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" ht="16.5" customHeight="1">
+    <row r="186" spans="1:24" ht="16.5" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -8347,7 +8388,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" ht="16.5" customHeight="1">
+    <row r="187" spans="1:24" ht="16.5" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -8373,7 +8414,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" ht="16.5" customHeight="1">
+    <row r="188" spans="1:24" ht="16.5" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -8399,7 +8440,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" ht="16.5" customHeight="1">
+    <row r="189" spans="1:24" ht="16.5" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8425,7 +8466,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" ht="16.5" customHeight="1">
+    <row r="190" spans="1:24" ht="16.5" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8451,7 +8492,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" ht="16.5" customHeight="1">
+    <row r="191" spans="1:24" ht="16.5" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8477,7 +8518,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" ht="16.5" customHeight="1">
+    <row r="192" spans="1:24" ht="16.5" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -8503,7 +8544,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" ht="16.5" customHeight="1">
+    <row r="193" spans="1:24" ht="16.5" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -8529,7 +8570,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" ht="16.5" customHeight="1">
+    <row r="194" spans="1:24" ht="16.5" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -8555,7 +8596,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" ht="16.5" customHeight="1">
+    <row r="195" spans="1:24" ht="16.5" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8581,7 +8622,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" ht="16.5" customHeight="1">
+    <row r="196" spans="1:24" ht="16.5" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -8607,7 +8648,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" ht="16.5" customHeight="1">
+    <row r="197" spans="1:24" ht="16.5" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8633,7 +8674,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" ht="16.5" customHeight="1">
+    <row r="198" spans="1:24" ht="16.5" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8659,7 +8700,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" ht="16.5" customHeight="1">
+    <row r="199" spans="1:24" ht="16.5" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8685,7 +8726,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" ht="16.5" customHeight="1">
+    <row r="200" spans="1:24" ht="16.5" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8711,7 +8752,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" ht="16.5" customHeight="1">
+    <row r="201" spans="1:24" ht="16.5" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8737,7 +8778,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" ht="16.5" customHeight="1">
+    <row r="202" spans="1:24" ht="16.5" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8763,7 +8804,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" ht="16.5" customHeight="1">
+    <row r="203" spans="1:24" ht="16.5" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8789,7 +8830,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" ht="16.5" customHeight="1">
+    <row r="204" spans="1:24" ht="16.5" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8815,7 +8856,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" ht="16.5" customHeight="1">
+    <row r="205" spans="1:24" ht="16.5" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8841,7 +8882,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" ht="16.5" customHeight="1">
+    <row r="206" spans="1:24" ht="16.5" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8867,7 +8908,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" ht="16.5" customHeight="1">
+    <row r="207" spans="1:24" ht="16.5" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8893,7 +8934,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" ht="16.5" customHeight="1">
+    <row r="208" spans="1:24" ht="16.5" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8919,7 +8960,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" ht="16.5" customHeight="1">
+    <row r="209" spans="1:24" ht="16.5" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8945,7 +8986,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" ht="16.5" customHeight="1">
+    <row r="210" spans="1:24" ht="16.5" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8971,7 +9012,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" ht="16.5" customHeight="1">
+    <row r="211" spans="1:24" ht="16.5" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8997,7 +9038,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" ht="16.5" customHeight="1">
+    <row r="212" spans="1:24" ht="16.5" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -9023,7 +9064,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" ht="16.5" customHeight="1">
+    <row r="213" spans="1:24" ht="16.5" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -9049,7 +9090,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" ht="16.5" customHeight="1">
+    <row r="214" spans="1:24" ht="16.5" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -9075,7 +9116,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" ht="16.5" customHeight="1">
+    <row r="215" spans="1:24" ht="16.5" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -9101,7 +9142,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" ht="16.5" customHeight="1">
+    <row r="216" spans="1:24" ht="16.5" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -9127,7 +9168,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" ht="16.5" customHeight="1">
+    <row r="217" spans="1:24" ht="16.5" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -9153,7 +9194,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" ht="16.5" customHeight="1">
+    <row r="218" spans="1:24" ht="16.5" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -9179,7 +9220,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" ht="16.5" customHeight="1">
+    <row r="219" spans="1:24" ht="16.5" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -9205,7 +9246,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" ht="16.5" customHeight="1">
+    <row r="220" spans="1:24" ht="16.5" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -9231,7 +9272,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" ht="16.5" customHeight="1">
+    <row r="221" spans="1:24" ht="16.5" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -9257,7 +9298,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" ht="16.5" customHeight="1">
+    <row r="222" spans="1:24" ht="16.5" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -9283,7 +9324,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" ht="16.5" customHeight="1">
+    <row r="223" spans="1:24" ht="16.5" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -9309,7 +9350,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" ht="16.5" customHeight="1">
+    <row r="224" spans="1:24" ht="16.5" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -9335,7 +9376,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" ht="16.5" customHeight="1">
+    <row r="225" spans="1:24" ht="16.5" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -9361,7 +9402,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" ht="16.5" customHeight="1">
+    <row r="226" spans="1:24" ht="16.5" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -9387,7 +9428,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" ht="16.5" customHeight="1">
+    <row r="227" spans="1:24" ht="16.5" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -9413,7 +9454,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" ht="16.5" customHeight="1">
+    <row r="228" spans="1:24" ht="16.5" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -9439,7 +9480,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" ht="16.5" customHeight="1">
+    <row r="229" spans="1:24" ht="16.5" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -9465,7 +9506,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" ht="16.5" customHeight="1">
+    <row r="230" spans="1:24" ht="16.5" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -9491,7 +9532,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" ht="16.5" customHeight="1">
+    <row r="231" spans="1:24" ht="16.5" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -9517,7 +9558,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" ht="16.5" customHeight="1">
+    <row r="232" spans="1:24" ht="16.5" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -9543,7 +9584,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" ht="16.5" customHeight="1">
+    <row r="233" spans="1:24" ht="16.5" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -9569,7 +9610,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" ht="16.5" customHeight="1">
+    <row r="234" spans="1:24" ht="16.5" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9595,7 +9636,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" ht="16.5" customHeight="1">
+    <row r="235" spans="1:24" ht="16.5" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9621,7 +9662,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" ht="16.5" customHeight="1">
+    <row r="236" spans="1:24" ht="16.5" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9647,7 +9688,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" ht="16.5" customHeight="1">
+    <row r="237" spans="1:24" ht="16.5" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9673,7 +9714,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" ht="16.5" customHeight="1">
+    <row r="238" spans="1:24" ht="16.5" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9699,7 +9740,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" ht="16.5" customHeight="1">
+    <row r="239" spans="1:24" ht="16.5" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9725,7 +9766,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" ht="16.5" customHeight="1">
+    <row r="240" spans="1:24" ht="16.5" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9751,7 +9792,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" ht="16.5" customHeight="1">
+    <row r="241" spans="1:24" ht="16.5" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9777,7 +9818,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" ht="16.5" customHeight="1">
+    <row r="242" spans="1:24" ht="16.5" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9803,7 +9844,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" ht="16.5" customHeight="1">
+    <row r="243" spans="1:24" ht="16.5" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9829,7 +9870,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" ht="16.5" customHeight="1">
+    <row r="244" spans="1:24" ht="16.5" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9855,7 +9896,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" ht="16.5" customHeight="1">
+    <row r="245" spans="1:24" ht="16.5" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9881,7 +9922,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" ht="16.5" customHeight="1">
+    <row r="246" spans="1:24" ht="16.5" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9907,7 +9948,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" ht="16.5" customHeight="1">
+    <row r="247" spans="1:24" ht="16.5" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9933,7 +9974,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" ht="16.5" customHeight="1">
+    <row r="248" spans="1:24" ht="16.5" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9959,7 +10000,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" ht="16.5" customHeight="1">
+    <row r="249" spans="1:24" ht="16.5" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9985,7 +10026,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" ht="16.5" customHeight="1">
+    <row r="250" spans="1:24" ht="16.5" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -10011,7 +10052,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" ht="16.5" customHeight="1">
+    <row r="251" spans="1:24" ht="16.5" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -10037,7 +10078,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" ht="16.5" customHeight="1">
+    <row r="252" spans="1:24" ht="16.5" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -10063,7 +10104,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" ht="16.5" customHeight="1">
+    <row r="253" spans="1:24" ht="16.5" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -10089,7 +10130,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" ht="16.5" customHeight="1">
+    <row r="254" spans="1:24" ht="16.5" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -10115,7 +10156,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" ht="16.5" customHeight="1">
+    <row r="255" spans="1:24" ht="16.5" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -10141,7 +10182,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" ht="16.5" customHeight="1">
+    <row r="256" spans="1:24" ht="16.5" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -10167,7 +10208,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" ht="16.5" customHeight="1">
+    <row r="257" spans="1:24" ht="16.5" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -10193,7 +10234,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" ht="16.5" customHeight="1">
+    <row r="258" spans="1:24" ht="16.5" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -10219,7 +10260,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" ht="16.5" customHeight="1">
+    <row r="259" spans="1:24" ht="16.5" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -10245,7 +10286,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" ht="16.5" customHeight="1">
+    <row r="260" spans="1:24" ht="16.5" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -10271,7 +10312,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" ht="16.5" customHeight="1">
+    <row r="261" spans="1:24" ht="16.5" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -10297,7 +10338,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" ht="16.5" customHeight="1">
+    <row r="262" spans="1:24" ht="16.5" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -10323,7 +10364,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" ht="16.5" customHeight="1">
+    <row r="263" spans="1:24" ht="16.5" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -10349,7 +10390,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" ht="16.5" customHeight="1">
+    <row r="264" spans="1:24" ht="16.5" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -10375,7 +10416,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" ht="16.5" customHeight="1">
+    <row r="265" spans="1:24" ht="16.5" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -10401,7 +10442,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" ht="16.5" customHeight="1">
+    <row r="266" spans="1:24" ht="16.5" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10427,7 +10468,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" ht="16.5" customHeight="1">
+    <row r="267" spans="1:24" ht="16.5" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10453,7 +10494,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" ht="16.5" customHeight="1">
+    <row r="268" spans="1:24" ht="16.5" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10479,7 +10520,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" ht="16.5" customHeight="1">
+    <row r="269" spans="1:24" ht="16.5" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10505,7 +10546,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" ht="16.5" customHeight="1">
+    <row r="270" spans="1:24" ht="16.5" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10531,7 +10572,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" ht="16.5" customHeight="1">
+    <row r="271" spans="1:24" ht="16.5" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10557,7 +10598,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" ht="16.5" customHeight="1">
+    <row r="272" spans="1:24" ht="16.5" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10583,7 +10624,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" ht="16.5" customHeight="1">
+    <row r="273" spans="1:24" ht="16.5" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10609,7 +10650,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" ht="16.5" customHeight="1">
+    <row r="274" spans="1:24" ht="16.5" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10635,7 +10676,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" ht="16.5" customHeight="1">
+    <row r="275" spans="1:24" ht="16.5" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10661,7 +10702,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" ht="16.5" customHeight="1">
+    <row r="276" spans="1:24" ht="16.5" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10687,7 +10728,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" ht="16.5" customHeight="1">
+    <row r="277" spans="1:24" ht="16.5" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10713,7 +10754,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" ht="16.5" customHeight="1">
+    <row r="278" spans="1:24" ht="16.5" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -10739,7 +10780,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" ht="16.5" customHeight="1">
+    <row r="279" spans="1:24" ht="16.5" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -10765,7 +10806,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" ht="16.5" customHeight="1">
+    <row r="280" spans="1:24" ht="16.5" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -10791,7 +10832,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" ht="16.5" customHeight="1">
+    <row r="281" spans="1:24" ht="16.5" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -10817,7 +10858,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" ht="16.5" customHeight="1">
+    <row r="282" spans="1:24" ht="16.5" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -10843,7 +10884,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" ht="16.5" customHeight="1">
+    <row r="283" spans="1:24" ht="16.5" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -10869,7 +10910,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" ht="16.5" customHeight="1">
+    <row r="284" spans="1:24" ht="16.5" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -10895,7 +10936,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" ht="16.5" customHeight="1">
+    <row r="285" spans="1:24" ht="16.5" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -10921,7 +10962,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" ht="16.5" customHeight="1">
+    <row r="286" spans="1:24" ht="16.5" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -10947,7 +10988,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" ht="16.5" customHeight="1">
+    <row r="287" spans="1:24" ht="16.5" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -10973,7 +11014,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" ht="16.5" customHeight="1">
+    <row r="288" spans="1:24" ht="16.5" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -10999,7 +11040,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" ht="16.5" customHeight="1">
+    <row r="289" spans="1:24" ht="16.5" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -11025,7 +11066,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" ht="16.5" customHeight="1">
+    <row r="290" spans="1:24" ht="16.5" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -11051,7 +11092,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" ht="16.5" customHeight="1">
+    <row r="291" spans="1:24" ht="16.5" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -11077,7 +11118,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" ht="16.5" customHeight="1">
+    <row r="292" spans="1:24" ht="16.5" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -11103,7 +11144,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" ht="16.5" customHeight="1">
+    <row r="293" spans="1:24" ht="16.5" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -11129,7 +11170,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" ht="16.5" customHeight="1">
+    <row r="294" spans="1:24" ht="16.5" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -11155,7 +11196,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" ht="16.5" customHeight="1">
+    <row r="295" spans="1:24" ht="16.5" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -11181,7 +11222,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" ht="16.5" customHeight="1">
+    <row r="296" spans="1:24" ht="16.5" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -11207,7 +11248,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" ht="16.5" customHeight="1">
+    <row r="297" spans="1:24" ht="16.5" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -11233,7 +11274,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" ht="16.5" customHeight="1">
+    <row r="298" spans="1:24" ht="16.5" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11259,7 +11300,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" ht="16.5" customHeight="1">
+    <row r="299" spans="1:24" ht="16.5" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11285,7 +11326,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" ht="16.5" customHeight="1">
+    <row r="300" spans="1:24" ht="16.5" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -11311,7 +11352,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" ht="16.5" customHeight="1">
+    <row r="301" spans="1:24" ht="16.5" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -11337,7 +11378,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" ht="16.5" customHeight="1">
+    <row r="302" spans="1:24" ht="16.5" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -11363,7 +11404,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" ht="16.5" customHeight="1">
+    <row r="303" spans="1:24" ht="16.5" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -11389,7 +11430,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" ht="16.5" customHeight="1">
+    <row r="304" spans="1:24" ht="16.5" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -11415,7 +11456,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" ht="16.5" customHeight="1">
+    <row r="305" spans="1:24" ht="16.5" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -11441,7 +11482,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" ht="16.5" customHeight="1">
+    <row r="306" spans="1:24" ht="16.5" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -11467,7 +11508,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" ht="16.5" customHeight="1">
+    <row r="307" spans="1:24" ht="16.5" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -11493,7 +11534,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" ht="16.5" customHeight="1">
+    <row r="308" spans="1:24" ht="16.5" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -11519,7 +11560,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" ht="16.5" customHeight="1">
+    <row r="309" spans="1:24" ht="16.5" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -11545,7 +11586,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" ht="16.5" customHeight="1">
+    <row r="310" spans="1:24" ht="16.5" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -11571,7 +11612,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" ht="16.5" customHeight="1">
+    <row r="311" spans="1:24" ht="16.5" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -11597,7 +11638,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" ht="16.5" customHeight="1">
+    <row r="312" spans="1:24" ht="16.5" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -11623,7 +11664,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" ht="16.5" customHeight="1">
+    <row r="313" spans="1:24" ht="16.5" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -11649,7 +11690,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" ht="16.5" customHeight="1">
+    <row r="314" spans="1:24" ht="16.5" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -11675,7 +11716,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" ht="16.5" customHeight="1">
+    <row r="315" spans="1:24" ht="16.5" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -11701,7 +11742,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" ht="16.5" customHeight="1">
+    <row r="316" spans="1:24" ht="16.5" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -11727,7 +11768,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" ht="16.5" customHeight="1">
+    <row r="317" spans="1:24" ht="16.5" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -11753,7 +11794,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" ht="16.5" customHeight="1">
+    <row r="318" spans="1:24" ht="16.5" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -11779,7 +11820,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" ht="16.5" customHeight="1">
+    <row r="319" spans="1:24" ht="16.5" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -11805,7 +11846,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" ht="16.5" customHeight="1">
+    <row r="320" spans="1:24" ht="16.5" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -11831,7 +11872,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" ht="16.5" customHeight="1">
+    <row r="321" spans="1:24" ht="16.5" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -11857,7 +11898,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" ht="16.5" customHeight="1">
+    <row r="322" spans="1:24" ht="16.5" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -11883,7 +11924,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" ht="16.5" customHeight="1">
+    <row r="323" spans="1:24" ht="16.5" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -11909,7 +11950,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" ht="16.5" customHeight="1">
+    <row r="324" spans="1:24" ht="16.5" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -11935,7 +11976,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" ht="16.5" customHeight="1">
+    <row r="325" spans="1:24" ht="16.5" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11961,7 +12002,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" ht="16.5" customHeight="1">
+    <row r="326" spans="1:24" ht="16.5" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -11987,7 +12028,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" ht="16.5" customHeight="1">
+    <row r="327" spans="1:24" ht="16.5" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -12013,7 +12054,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" ht="16.5" customHeight="1">
+    <row r="328" spans="1:24" ht="16.5" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -12039,7 +12080,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" ht="16.5" customHeight="1">
+    <row r="329" spans="1:24" ht="16.5" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -12065,7 +12106,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" ht="16.5" customHeight="1">
+    <row r="330" spans="1:24" ht="16.5" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -12091,7 +12132,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" ht="16.5" customHeight="1">
+    <row r="331" spans="1:24" ht="16.5" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -12117,7 +12158,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" ht="16.5" customHeight="1">
+    <row r="332" spans="1:24" ht="16.5" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -12143,7 +12184,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" ht="16.5" customHeight="1">
+    <row r="333" spans="1:24" ht="16.5" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -12169,7 +12210,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" ht="16.5" customHeight="1">
+    <row r="334" spans="1:24" ht="16.5" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -12195,7 +12236,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" ht="16.5" customHeight="1">
+    <row r="335" spans="1:24" ht="16.5" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -12221,7 +12262,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" ht="16.5" customHeight="1">
+    <row r="336" spans="1:24" ht="16.5" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -12247,7 +12288,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" ht="16.5" customHeight="1">
+    <row r="337" spans="1:24" ht="16.5" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -12273,7 +12314,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" ht="16.5" customHeight="1">
+    <row r="338" spans="1:24" ht="16.5" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -12299,7 +12340,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" ht="16.5" customHeight="1">
+    <row r="339" spans="1:24" ht="16.5" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -12325,7 +12366,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" ht="16.5" customHeight="1">
+    <row r="340" spans="1:24" ht="16.5" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -12351,7 +12392,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" ht="16.5" customHeight="1">
+    <row r="341" spans="1:24" ht="16.5" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -12377,7 +12418,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" ht="16.5" customHeight="1">
+    <row r="342" spans="1:24" ht="16.5" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -12403,7 +12444,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" ht="16.5" customHeight="1">
+    <row r="343" spans="1:24" ht="16.5" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -12429,7 +12470,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" ht="16.5" customHeight="1">
+    <row r="344" spans="1:24" ht="16.5" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -12455,7 +12496,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" ht="16.5" customHeight="1">
+    <row r="345" spans="1:24" ht="16.5" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -12481,7 +12522,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" ht="16.5" customHeight="1">
+    <row r="346" spans="1:24" ht="16.5" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -12507,7 +12548,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" ht="16.5" customHeight="1">
+    <row r="347" spans="1:24" ht="16.5" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -12533,7 +12574,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" ht="16.5" customHeight="1">
+    <row r="348" spans="1:24" ht="16.5" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -12559,7 +12600,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" ht="16.5" customHeight="1">
+    <row r="349" spans="1:24" ht="16.5" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -12585,7 +12626,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" ht="16.5" customHeight="1">
+    <row r="350" spans="1:24" ht="16.5" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -12611,7 +12652,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" ht="16.5" customHeight="1">
+    <row r="351" spans="1:24" ht="16.5" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -12637,7 +12678,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" ht="16.5" customHeight="1">
+    <row r="352" spans="1:24" ht="16.5" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -12663,7 +12704,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" ht="16.5" customHeight="1">
+    <row r="353" spans="1:24" ht="16.5" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -12689,7 +12730,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" ht="16.5" customHeight="1">
+    <row r="354" spans="1:24" ht="16.5" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -12715,7 +12756,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" ht="16.5" customHeight="1">
+    <row r="355" spans="1:24" ht="16.5" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -12741,7 +12782,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" ht="16.5" customHeight="1">
+    <row r="356" spans="1:24" ht="16.5" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -12767,7 +12808,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" ht="16.5" customHeight="1">
+    <row r="357" spans="1:24" ht="16.5" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -12793,7 +12834,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" ht="16.5" customHeight="1">
+    <row r="358" spans="1:24" ht="16.5" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -12819,7 +12860,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" ht="16.5" customHeight="1">
+    <row r="359" spans="1:24" ht="16.5" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -12845,7 +12886,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" ht="16.5" customHeight="1">
+    <row r="360" spans="1:24" ht="16.5" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -12871,7 +12912,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" ht="16.5" customHeight="1">
+    <row r="361" spans="1:24" ht="16.5" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -12897,7 +12938,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" ht="16.5" customHeight="1">
+    <row r="362" spans="1:24" ht="16.5" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -12923,7 +12964,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" ht="16.5" customHeight="1">
+    <row r="363" spans="1:24" ht="16.5" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -12949,7 +12990,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" ht="16.5" customHeight="1">
+    <row r="364" spans="1:24" ht="16.5" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -12975,7 +13016,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" ht="16.5" customHeight="1">
+    <row r="365" spans="1:24" ht="16.5" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -13001,7 +13042,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" ht="16.5" customHeight="1">
+    <row r="366" spans="1:24" ht="16.5" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -13027,7 +13068,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" ht="16.5" customHeight="1">
+    <row r="367" spans="1:24" ht="16.5" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -13053,7 +13094,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" ht="16.5" customHeight="1">
+    <row r="368" spans="1:24" ht="16.5" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -13079,7 +13120,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" ht="16.5" customHeight="1">
+    <row r="369" spans="1:24" ht="16.5" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -13105,7 +13146,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" ht="16.5" customHeight="1">
+    <row r="370" spans="1:24" ht="16.5" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -13131,7 +13172,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" ht="16.5" customHeight="1">
+    <row r="371" spans="1:24" ht="16.5" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -13157,7 +13198,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" ht="16.5" customHeight="1">
+    <row r="372" spans="1:24" ht="16.5" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -13183,7 +13224,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" ht="16.5" customHeight="1">
+    <row r="373" spans="1:24" ht="16.5" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -13209,7 +13250,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" ht="16.5" customHeight="1">
+    <row r="374" spans="1:24" ht="16.5" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -13235,7 +13276,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" ht="16.5" customHeight="1">
+    <row r="375" spans="1:24" ht="16.5" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -13261,7 +13302,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" ht="16.5" customHeight="1">
+    <row r="376" spans="1:24" ht="16.5" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -13287,7 +13328,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" ht="16.5" customHeight="1">
+    <row r="377" spans="1:24" ht="16.5" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -13313,7 +13354,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" ht="16.5" customHeight="1">
+    <row r="378" spans="1:24" ht="16.5" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -13339,7 +13380,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" ht="16.5" customHeight="1">
+    <row r="379" spans="1:24" ht="16.5" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -13365,7 +13406,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" ht="16.5" customHeight="1">
+    <row r="380" spans="1:24" ht="16.5" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -13391,7 +13432,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" ht="16.5" customHeight="1">
+    <row r="381" spans="1:24" ht="16.5" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -13417,7 +13458,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" ht="16.5" customHeight="1">
+    <row r="382" spans="1:24" ht="16.5" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -13443,7 +13484,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" ht="16.5" customHeight="1">
+    <row r="383" spans="1:24" ht="16.5" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -13469,7 +13510,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" ht="16.5" customHeight="1">
+    <row r="384" spans="1:24" ht="16.5" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -13495,7 +13536,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" ht="16.5" customHeight="1">
+    <row r="385" spans="1:24" ht="16.5" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -13521,7 +13562,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" ht="16.5" customHeight="1">
+    <row r="386" spans="1:24" ht="16.5" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -13547,7 +13588,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" ht="16.5" customHeight="1">
+    <row r="387" spans="1:24" ht="16.5" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -13573,7 +13614,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" ht="16.5" customHeight="1">
+    <row r="388" spans="1:24" ht="16.5" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -13599,7 +13640,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" ht="16.5" customHeight="1">
+    <row r="389" spans="1:24" ht="16.5" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -13625,7 +13666,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" ht="16.5" customHeight="1">
+    <row r="390" spans="1:24" ht="16.5" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -13651,7 +13692,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" ht="16.5" customHeight="1">
+    <row r="391" spans="1:24" ht="16.5" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -13677,7 +13718,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" ht="16.5" customHeight="1">
+    <row r="392" spans="1:24" ht="16.5" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -13703,7 +13744,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" ht="16.5" customHeight="1">
+    <row r="393" spans="1:24" ht="16.5" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -13729,7 +13770,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" ht="16.5" customHeight="1">
+    <row r="394" spans="1:24" ht="16.5" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -13755,7 +13796,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" ht="16.5" customHeight="1">
+    <row r="395" spans="1:24" ht="16.5" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -13781,7 +13822,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" ht="16.5" customHeight="1">
+    <row r="396" spans="1:24" ht="16.5" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -13807,7 +13848,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" ht="16.5" customHeight="1">
+    <row r="397" spans="1:24" ht="16.5" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -13833,7 +13874,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" ht="16.5" customHeight="1">
+    <row r="398" spans="1:24" ht="16.5" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -13859,7 +13900,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" ht="16.5" customHeight="1">
+    <row r="399" spans="1:24" ht="16.5" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -13885,7 +13926,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" ht="16.5" customHeight="1">
+    <row r="400" spans="1:24" ht="16.5" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -13911,7 +13952,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" ht="16.5" customHeight="1">
+    <row r="401" spans="1:24" ht="16.5" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -13937,7 +13978,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" ht="16.5" customHeight="1">
+    <row r="402" spans="1:24" ht="16.5" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -13963,7 +14004,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" ht="16.5" customHeight="1">
+    <row r="403" spans="1:24" ht="16.5" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -13989,7 +14030,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" ht="16.5" customHeight="1">
+    <row r="404" spans="1:24" ht="16.5" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -14015,7 +14056,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" ht="16.5" customHeight="1">
+    <row r="405" spans="1:24" ht="16.5" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -14041,7 +14082,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" ht="16.5" customHeight="1">
+    <row r="406" spans="1:24" ht="16.5" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -14067,7 +14108,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" ht="16.5" customHeight="1">
+    <row r="407" spans="1:24" ht="16.5" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -14093,7 +14134,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" ht="16.5" customHeight="1">
+    <row r="408" spans="1:24" ht="16.5" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -14119,7 +14160,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" ht="16.5" customHeight="1">
+    <row r="409" spans="1:24" ht="16.5" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -14145,7 +14186,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" ht="16.5" customHeight="1">
+    <row r="410" spans="1:24" ht="16.5" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -14171,7 +14212,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" ht="16.5" customHeight="1">
+    <row r="411" spans="1:24" ht="16.5" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -14197,7 +14238,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" ht="16.5" customHeight="1">
+    <row r="412" spans="1:24" ht="16.5" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -14223,7 +14264,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" ht="16.5" customHeight="1">
+    <row r="413" spans="1:24" ht="16.5" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -14249,7 +14290,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" ht="16.5" customHeight="1">
+    <row r="414" spans="1:24" ht="16.5" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -14275,7 +14316,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" ht="16.5" customHeight="1">
+    <row r="415" spans="1:24" ht="16.5" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -14301,7 +14342,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" ht="16.5" customHeight="1">
+    <row r="416" spans="1:24" ht="16.5" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -14327,7 +14368,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" ht="16.5" customHeight="1">
+    <row r="417" spans="1:24" ht="16.5" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -14353,7 +14394,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" ht="16.5" customHeight="1">
+    <row r="418" spans="1:24" ht="16.5" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -14379,7 +14420,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" ht="16.5" customHeight="1">
+    <row r="419" spans="1:24" ht="16.5" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -14405,7 +14446,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" ht="16.5" customHeight="1">
+    <row r="420" spans="1:24" ht="16.5" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -14431,7 +14472,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" ht="16.5" customHeight="1">
+    <row r="421" spans="1:24" ht="16.5" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -14457,7 +14498,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" ht="16.5" customHeight="1">
+    <row r="422" spans="1:24" ht="16.5" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -14483,7 +14524,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" ht="16.5" customHeight="1">
+    <row r="423" spans="1:24" ht="16.5" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -14509,7 +14550,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" ht="16.5" customHeight="1">
+    <row r="424" spans="1:24" ht="16.5" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -14535,7 +14576,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" ht="16.5" customHeight="1">
+    <row r="425" spans="1:24" ht="16.5" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -14561,7 +14602,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" ht="16.5" customHeight="1">
+    <row r="426" spans="1:24" ht="16.5" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -14587,7 +14628,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" ht="16.5" customHeight="1">
+    <row r="427" spans="1:24" ht="16.5" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -14613,7 +14654,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" ht="16.5" customHeight="1">
+    <row r="428" spans="1:24" ht="16.5" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -14639,7 +14680,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" ht="16.5" customHeight="1">
+    <row r="429" spans="1:24" ht="16.5" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -14665,7 +14706,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" ht="16.5" customHeight="1">
+    <row r="430" spans="1:24" ht="16.5" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -14691,7 +14732,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" ht="16.5" customHeight="1">
+    <row r="431" spans="1:24" ht="16.5" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -14717,7 +14758,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" ht="16.5" customHeight="1">
+    <row r="432" spans="1:24" ht="16.5" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -14743,7 +14784,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" ht="16.5" customHeight="1">
+    <row r="433" spans="1:24" ht="16.5" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -14769,7 +14810,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" ht="16.5" customHeight="1">
+    <row r="434" spans="1:24" ht="16.5" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -14795,7 +14836,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" ht="16.5" customHeight="1">
+    <row r="435" spans="1:24" ht="16.5" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -14821,7 +14862,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" ht="16.5" customHeight="1">
+    <row r="436" spans="1:24" ht="16.5" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -14847,7 +14888,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" ht="16.5" customHeight="1">
+    <row r="437" spans="1:24" ht="16.5" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -14873,7 +14914,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" ht="16.5" customHeight="1">
+    <row r="438" spans="1:24" ht="16.5" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -14899,7 +14940,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" ht="16.5" customHeight="1">
+    <row r="439" spans="1:24" ht="16.5" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -14925,7 +14966,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" ht="16.5" customHeight="1">
+    <row r="440" spans="1:24" ht="16.5" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -14951,7 +14992,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" ht="16.5" customHeight="1">
+    <row r="441" spans="1:24" ht="16.5" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -14977,7 +15018,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" ht="16.5" customHeight="1">
+    <row r="442" spans="1:24" ht="16.5" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -15003,7 +15044,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" ht="16.5" customHeight="1">
+    <row r="443" spans="1:24" ht="16.5" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -15029,7 +15070,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" ht="16.5" customHeight="1">
+    <row r="444" spans="1:24" ht="16.5" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -15055,7 +15096,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" ht="16.5" customHeight="1">
+    <row r="445" spans="1:24" ht="16.5" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -15081,7 +15122,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" ht="16.5" customHeight="1">
+    <row r="446" spans="1:24" ht="16.5" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -15107,7 +15148,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" ht="16.5" customHeight="1">
+    <row r="447" spans="1:24" ht="16.5" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -15133,7 +15174,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" ht="16.5" customHeight="1">
+    <row r="448" spans="1:24" ht="16.5" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -15159,7 +15200,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" ht="16.5" customHeight="1">
+    <row r="449" spans="1:24" ht="16.5" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -15185,7 +15226,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" ht="16.5" customHeight="1">
+    <row r="450" spans="1:24" ht="16.5" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -15211,7 +15252,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" ht="16.5" customHeight="1">
+    <row r="451" spans="1:24" ht="16.5" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -15237,7 +15278,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" ht="16.5" customHeight="1">
+    <row r="452" spans="1:24" ht="16.5" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -15263,7 +15304,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" ht="16.5" customHeight="1">
+    <row r="453" spans="1:24" ht="16.5" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -15289,7 +15330,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" ht="16.5" customHeight="1">
+    <row r="454" spans="1:24" ht="16.5" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -15315,7 +15356,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" ht="16.5" customHeight="1">
+    <row r="455" spans="1:24" ht="16.5" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -15341,7 +15382,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" ht="16.5" customHeight="1">
+    <row r="456" spans="1:24" ht="16.5" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -15367,7 +15408,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" ht="16.5" customHeight="1">
+    <row r="457" spans="1:24" ht="16.5" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -15393,7 +15434,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" ht="16.5" customHeight="1">
+    <row r="458" spans="1:24" ht="16.5" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -15419,7 +15460,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" ht="16.5" customHeight="1">
+    <row r="459" spans="1:24" ht="16.5" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -15445,7 +15486,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" ht="16.5" customHeight="1">
+    <row r="460" spans="1:24" ht="16.5" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -15471,7 +15512,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" ht="16.5" customHeight="1">
+    <row r="461" spans="1:24" ht="16.5" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -15497,7 +15538,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" ht="16.5" customHeight="1">
+    <row r="462" spans="1:24" ht="16.5" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -15523,7 +15564,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" ht="16.5" customHeight="1">
+    <row r="463" spans="1:24" ht="16.5" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -15549,7 +15590,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" ht="16.5" customHeight="1">
+    <row r="464" spans="1:24" ht="16.5" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -15575,7 +15616,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" ht="16.5" customHeight="1">
+    <row r="465" spans="1:24" ht="16.5" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -15601,7 +15642,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" ht="16.5" customHeight="1">
+    <row r="466" spans="1:24" ht="16.5" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -15627,7 +15668,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" ht="16.5" customHeight="1">
+    <row r="467" spans="1:24" ht="16.5" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -15653,7 +15694,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" ht="16.5" customHeight="1">
+    <row r="468" spans="1:24" ht="16.5" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -15679,7 +15720,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" ht="16.5" customHeight="1">
+    <row r="469" spans="1:24" ht="16.5" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -15705,7 +15746,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" ht="16.5" customHeight="1">
+    <row r="470" spans="1:24" ht="16.5" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -15731,7 +15772,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" ht="16.5" customHeight="1">
+    <row r="471" spans="1:24" ht="16.5" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -15757,7 +15798,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" ht="16.5" customHeight="1">
+    <row r="472" spans="1:24" ht="16.5" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -15783,7 +15824,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" ht="16.5" customHeight="1">
+    <row r="473" spans="1:24" ht="16.5" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -15809,7 +15850,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" ht="16.5" customHeight="1">
+    <row r="474" spans="1:24" ht="16.5" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -15835,7 +15876,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" ht="16.5" customHeight="1">
+    <row r="475" spans="1:24" ht="16.5" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -15861,7 +15902,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" ht="16.5" customHeight="1">
+    <row r="476" spans="1:24" ht="16.5" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -15887,7 +15928,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" ht="16.5" customHeight="1">
+    <row r="477" spans="1:24" ht="16.5" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -15913,7 +15954,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" ht="16.5" customHeight="1">
+    <row r="478" spans="1:24" ht="16.5" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -15939,7 +15980,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" ht="16.5" customHeight="1">
+    <row r="479" spans="1:24" ht="16.5" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -15965,7 +16006,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" ht="16.5" customHeight="1">
+    <row r="480" spans="1:24" ht="16.5" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -15991,7 +16032,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" ht="16.5" customHeight="1">
+    <row r="481" spans="1:24" ht="16.5" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -16017,7 +16058,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" ht="16.5" customHeight="1">
+    <row r="482" spans="1:24" ht="16.5" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -16043,7 +16084,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" ht="16.5" customHeight="1">
+    <row r="483" spans="1:24" ht="16.5" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -16069,7 +16110,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" ht="16.5" customHeight="1">
+    <row r="484" spans="1:24" ht="16.5" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -16095,7 +16136,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" ht="16.5" customHeight="1">
+    <row r="485" spans="1:24" ht="16.5" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -16121,7 +16162,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" ht="16.5" customHeight="1">
+    <row r="486" spans="1:24" ht="16.5" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -16147,7 +16188,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" ht="16.5" customHeight="1">
+    <row r="487" spans="1:24" ht="16.5" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -16173,7 +16214,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" ht="16.5" customHeight="1">
+    <row r="488" spans="1:24" ht="16.5" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -16199,7 +16240,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" ht="16.5" customHeight="1">
+    <row r="489" spans="1:24" ht="16.5" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -16225,7 +16266,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" ht="16.5" customHeight="1">
+    <row r="490" spans="1:24" ht="16.5" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -16251,7 +16292,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" ht="16.5" customHeight="1">
+    <row r="491" spans="1:24" ht="16.5" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -16277,7 +16318,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" ht="16.5" customHeight="1">
+    <row r="492" spans="1:24" ht="16.5" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -16303,7 +16344,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" ht="16.5" customHeight="1">
+    <row r="493" spans="1:24" ht="16.5" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -16329,7 +16370,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" ht="16.5" customHeight="1">
+    <row r="494" spans="1:24" ht="16.5" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -16355,7 +16396,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" ht="16.5" customHeight="1">
+    <row r="495" spans="1:24" ht="16.5" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -16381,7 +16422,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" ht="16.5" customHeight="1">
+    <row r="496" spans="1:24" ht="16.5" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -16407,7 +16448,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" ht="16.5" customHeight="1">
+    <row r="497" spans="1:24" ht="16.5" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -16433,7 +16474,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" ht="16.5" customHeight="1">
+    <row r="498" spans="1:24" ht="16.5" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -16459,7 +16500,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" ht="16.5" customHeight="1">
+    <row r="499" spans="1:24" ht="16.5" customHeight="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -16485,7 +16526,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" ht="16.5" customHeight="1">
+    <row r="500" spans="1:24" ht="16.5" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -16511,7 +16552,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" ht="16.5" customHeight="1">
+    <row r="501" spans="1:24" ht="16.5" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -16537,7 +16578,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" ht="16.5" customHeight="1">
+    <row r="502" spans="1:24" ht="16.5" customHeight="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -16563,7 +16604,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" ht="16.5" customHeight="1">
+    <row r="503" spans="1:24" ht="16.5" customHeight="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -16589,7 +16630,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" ht="16.5" customHeight="1">
+    <row r="504" spans="1:24" ht="16.5" customHeight="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -16615,7 +16656,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" ht="16.5" customHeight="1">
+    <row r="505" spans="1:24" ht="16.5" customHeight="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -16641,7 +16682,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" ht="16.5" customHeight="1">
+    <row r="506" spans="1:24" ht="16.5" customHeight="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -16667,7 +16708,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" ht="16.5" customHeight="1">
+    <row r="507" spans="1:24" ht="16.5" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -16693,7 +16734,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" ht="16.5" customHeight="1">
+    <row r="508" spans="1:24" ht="16.5" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -16719,7 +16760,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" ht="16.5" customHeight="1">
+    <row r="509" spans="1:24" ht="16.5" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -16745,7 +16786,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" ht="16.5" customHeight="1">
+    <row r="510" spans="1:24" ht="16.5" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -16771,7 +16812,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" ht="16.5" customHeight="1">
+    <row r="511" spans="1:24" ht="16.5" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -16797,7 +16838,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" ht="16.5" customHeight="1">
+    <row r="512" spans="1:24" ht="16.5" customHeight="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -16823,7 +16864,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" ht="16.5" customHeight="1">
+    <row r="513" spans="1:24" ht="16.5" customHeight="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -16849,7 +16890,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" ht="16.5" customHeight="1">
+    <row r="514" spans="1:24" ht="16.5" customHeight="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -16875,7 +16916,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" ht="16.5" customHeight="1">
+    <row r="515" spans="1:24" ht="16.5" customHeight="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -16901,7 +16942,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" ht="16.5" customHeight="1">
+    <row r="516" spans="1:24" ht="16.5" customHeight="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -16927,7 +16968,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" ht="16.5" customHeight="1">
+    <row r="517" spans="1:24" ht="16.5" customHeight="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -16953,7 +16994,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" ht="16.5" customHeight="1">
+    <row r="518" spans="1:24" ht="16.5" customHeight="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -16979,7 +17020,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" ht="16.5" customHeight="1">
+    <row r="519" spans="1:24" ht="16.5" customHeight="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -17005,7 +17046,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" ht="16.5" customHeight="1">
+    <row r="520" spans="1:24" ht="16.5" customHeight="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -17031,7 +17072,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" ht="16.5" customHeight="1">
+    <row r="521" spans="1:24" ht="16.5" customHeight="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -17057,7 +17098,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" ht="16.5" customHeight="1">
+    <row r="522" spans="1:24" ht="16.5" customHeight="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -17083,7 +17124,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" ht="16.5" customHeight="1">
+    <row r="523" spans="1:24" ht="16.5" customHeight="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -17109,7 +17150,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" ht="16.5" customHeight="1">
+    <row r="524" spans="1:24" ht="16.5" customHeight="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -17135,7 +17176,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" ht="16.5" customHeight="1">
+    <row r="525" spans="1:24" ht="16.5" customHeight="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -17161,7 +17202,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" ht="16.5" customHeight="1">
+    <row r="526" spans="1:24" ht="16.5" customHeight="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -17187,7 +17228,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" ht="16.5" customHeight="1">
+    <row r="527" spans="1:24" ht="16.5" customHeight="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -17213,7 +17254,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" ht="16.5" customHeight="1">
+    <row r="528" spans="1:24" ht="16.5" customHeight="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -17239,7 +17280,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" ht="16.5" customHeight="1">
+    <row r="529" spans="1:24" ht="16.5" customHeight="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -17265,7 +17306,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" ht="16.5" customHeight="1">
+    <row r="530" spans="1:24" ht="16.5" customHeight="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -17291,7 +17332,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" ht="16.5" customHeight="1">
+    <row r="531" spans="1:24" ht="16.5" customHeight="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -17317,7 +17358,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" ht="16.5" customHeight="1">
+    <row r="532" spans="1:24" ht="16.5" customHeight="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -17343,7 +17384,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" ht="16.5" customHeight="1">
+    <row r="533" spans="1:24" ht="16.5" customHeight="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -17369,7 +17410,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" ht="16.5" customHeight="1">
+    <row r="534" spans="1:24" ht="16.5" customHeight="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -17395,7 +17436,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" ht="16.5" customHeight="1">
+    <row r="535" spans="1:24" ht="16.5" customHeight="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -17421,7 +17462,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" ht="16.5" customHeight="1">
+    <row r="536" spans="1:24" ht="16.5" customHeight="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -17447,7 +17488,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" ht="16.5" customHeight="1">
+    <row r="537" spans="1:24" ht="16.5" customHeight="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -17473,7 +17514,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" ht="16.5" customHeight="1">
+    <row r="538" spans="1:24" ht="16.5" customHeight="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -17499,7 +17540,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" ht="16.5" customHeight="1">
+    <row r="539" spans="1:24" ht="16.5" customHeight="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -17525,7 +17566,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" ht="16.5" customHeight="1">
+    <row r="540" spans="1:24" ht="16.5" customHeight="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -17551,7 +17592,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" ht="16.5" customHeight="1">
+    <row r="541" spans="1:24" ht="16.5" customHeight="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -17577,7 +17618,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" ht="16.5" customHeight="1">
+    <row r="542" spans="1:24" ht="16.5" customHeight="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -17603,7 +17644,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" ht="16.5" customHeight="1">
+    <row r="543" spans="1:24" ht="16.5" customHeight="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -17629,7 +17670,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" ht="16.5" customHeight="1">
+    <row r="544" spans="1:24" ht="16.5" customHeight="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -17655,7 +17696,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" ht="16.5" customHeight="1">
+    <row r="545" spans="1:24" ht="16.5" customHeight="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -17681,7 +17722,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" ht="16.5" customHeight="1">
+    <row r="546" spans="1:24" ht="16.5" customHeight="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -17707,7 +17748,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" ht="16.5" customHeight="1">
+    <row r="547" spans="1:24" ht="16.5" customHeight="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -17733,7 +17774,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" ht="16.5" customHeight="1">
+    <row r="548" spans="1:24" ht="16.5" customHeight="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -17759,7 +17800,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" ht="16.5" customHeight="1">
+    <row r="549" spans="1:24" ht="16.5" customHeight="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -17785,7 +17826,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" ht="16.5" customHeight="1">
+    <row r="550" spans="1:24" ht="16.5" customHeight="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -17811,7 +17852,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" ht="16.5" customHeight="1">
+    <row r="551" spans="1:24" ht="16.5" customHeight="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -17837,7 +17878,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" ht="16.5" customHeight="1">
+    <row r="552" spans="1:24" ht="16.5" customHeight="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -17863,7 +17904,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" ht="16.5" customHeight="1">
+    <row r="553" spans="1:24" ht="16.5" customHeight="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -17889,7 +17930,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" ht="16.5" customHeight="1">
+    <row r="554" spans="1:24" ht="16.5" customHeight="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -17915,7 +17956,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" ht="16.5" customHeight="1">
+    <row r="555" spans="1:24" ht="16.5" customHeight="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -17941,7 +17982,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" ht="16.5" customHeight="1">
+    <row r="556" spans="1:24" ht="16.5" customHeight="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -17967,7 +18008,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" ht="16.5" customHeight="1">
+    <row r="557" spans="1:24" ht="16.5" customHeight="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -17993,7 +18034,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" ht="16.5" customHeight="1">
+    <row r="558" spans="1:24" ht="16.5" customHeight="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -18019,7 +18060,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" ht="16.5" customHeight="1">
+    <row r="559" spans="1:24" ht="16.5" customHeight="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -18045,7 +18086,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" ht="16.5" customHeight="1">
+    <row r="560" spans="1:24" ht="16.5" customHeight="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -18071,7 +18112,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" ht="16.5" customHeight="1">
+    <row r="561" spans="1:24" ht="16.5" customHeight="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -18097,7 +18138,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" ht="16.5" customHeight="1">
+    <row r="562" spans="1:24" ht="16.5" customHeight="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -18123,7 +18164,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" ht="16.5" customHeight="1">
+    <row r="563" spans="1:24" ht="16.5" customHeight="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -18149,7 +18190,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" ht="16.5" customHeight="1">
+    <row r="564" spans="1:24" ht="16.5" customHeight="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -18175,7 +18216,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" ht="16.5" customHeight="1">
+    <row r="565" spans="1:24" ht="16.5" customHeight="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -18201,7 +18242,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" ht="16.5" customHeight="1">
+    <row r="566" spans="1:24" ht="16.5" customHeight="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -18227,7 +18268,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" ht="16.5" customHeight="1">
+    <row r="567" spans="1:24" ht="16.5" customHeight="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -18253,7 +18294,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" ht="16.5" customHeight="1">
+    <row r="568" spans="1:24" ht="16.5" customHeight="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -18279,7 +18320,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" ht="16.5" customHeight="1">
+    <row r="569" spans="1:24" ht="16.5" customHeight="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -18305,7 +18346,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" ht="16.5" customHeight="1">
+    <row r="570" spans="1:24" ht="16.5" customHeight="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -18331,7 +18372,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" ht="16.5" customHeight="1">
+    <row r="571" spans="1:24" ht="16.5" customHeight="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -18357,7 +18398,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" ht="16.5" customHeight="1">
+    <row r="572" spans="1:24" ht="16.5" customHeight="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -18383,7 +18424,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" ht="16.5" customHeight="1">
+    <row r="573" spans="1:24" ht="16.5" customHeight="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -18409,7 +18450,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" ht="16.5" customHeight="1">
+    <row r="574" spans="1:24" ht="16.5" customHeight="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -18435,7 +18476,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" ht="16.5" customHeight="1">
+    <row r="575" spans="1:24" ht="16.5" customHeight="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -18461,7 +18502,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" ht="16.5" customHeight="1">
+    <row r="576" spans="1:24" ht="16.5" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -18487,7 +18528,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" ht="16.5" customHeight="1">
+    <row r="577" spans="1:24" ht="16.5" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -18513,7 +18554,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" ht="16.5" customHeight="1">
+    <row r="578" spans="1:24" ht="16.5" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -18539,7 +18580,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" ht="16.5" customHeight="1">
+    <row r="579" spans="1:24" ht="16.5" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -18565,7 +18606,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" ht="16.5" customHeight="1">
+    <row r="580" spans="1:24" ht="16.5" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -18591,7 +18632,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" ht="16.5" customHeight="1">
+    <row r="581" spans="1:24" ht="16.5" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -18617,7 +18658,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" ht="16.5" customHeight="1">
+    <row r="582" spans="1:24" ht="16.5" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -18643,7 +18684,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" ht="16.5" customHeight="1">
+    <row r="583" spans="1:24" ht="16.5" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -18669,7 +18710,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" ht="16.5" customHeight="1">
+    <row r="584" spans="1:24" ht="16.5" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -18695,7 +18736,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" ht="16.5" customHeight="1">
+    <row r="585" spans="1:24" ht="16.5" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -18721,7 +18762,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" ht="16.5" customHeight="1">
+    <row r="586" spans="1:24" ht="16.5" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -18747,7 +18788,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" ht="16.5" customHeight="1">
+    <row r="587" spans="1:24" ht="16.5" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -18773,7 +18814,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" ht="16.5" customHeight="1">
+    <row r="588" spans="1:24" ht="16.5" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -18799,7 +18840,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" ht="16.5" customHeight="1">
+    <row r="589" spans="1:24" ht="16.5" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -18825,7 +18866,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" ht="16.5" customHeight="1">
+    <row r="590" spans="1:24" ht="16.5" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -18851,7 +18892,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" ht="16.5" customHeight="1">
+    <row r="591" spans="1:24" ht="16.5" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -18877,7 +18918,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" ht="16.5" customHeight="1">
+    <row r="592" spans="1:24" ht="16.5" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -18903,7 +18944,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" ht="16.5" customHeight="1">
+    <row r="593" spans="1:24" ht="16.5" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -18929,7 +18970,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" ht="16.5" customHeight="1">
+    <row r="594" spans="1:24" ht="16.5" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -18955,7 +18996,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" ht="16.5" customHeight="1">
+    <row r="595" spans="1:24" ht="16.5" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -18981,7 +19022,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" ht="16.5" customHeight="1">
+    <row r="596" spans="1:24" ht="16.5" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -19007,7 +19048,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" ht="16.5" customHeight="1">
+    <row r="597" spans="1:24" ht="16.5" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -19033,7 +19074,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" ht="16.5" customHeight="1">
+    <row r="598" spans="1:24" ht="16.5" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -19059,7 +19100,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" ht="16.5" customHeight="1">
+    <row r="599" spans="1:24" ht="16.5" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -19085,7 +19126,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" ht="16.5" customHeight="1">
+    <row r="600" spans="1:24" ht="16.5" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -19111,7 +19152,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" ht="16.5" customHeight="1">
+    <row r="601" spans="1:24" ht="16.5" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -19137,7 +19178,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" ht="16.5" customHeight="1">
+    <row r="602" spans="1:24" ht="16.5" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -19163,7 +19204,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" ht="16.5" customHeight="1">
+    <row r="603" spans="1:24" ht="16.5" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -19189,7 +19230,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" ht="16.5" customHeight="1">
+    <row r="604" spans="1:24" ht="16.5" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -19215,7 +19256,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" ht="16.5" customHeight="1">
+    <row r="605" spans="1:24" ht="16.5" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -19241,7 +19282,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" ht="16.5" customHeight="1">
+    <row r="606" spans="1:24" ht="16.5" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -19267,7 +19308,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" ht="16.5" customHeight="1">
+    <row r="607" spans="1:24" ht="16.5" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -19293,7 +19334,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" ht="16.5" customHeight="1">
+    <row r="608" spans="1:24" ht="16.5" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -19319,7 +19360,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" ht="16.5" customHeight="1">
+    <row r="609" spans="1:24" ht="16.5" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -19345,7 +19386,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" ht="16.5" customHeight="1">
+    <row r="610" spans="1:24" ht="16.5" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -19371,7 +19412,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" ht="16.5" customHeight="1">
+    <row r="611" spans="1:24" ht="16.5" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -19397,7 +19438,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" ht="16.5" customHeight="1">
+    <row r="612" spans="1:24" ht="16.5" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -19423,7 +19464,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" ht="16.5" customHeight="1">
+    <row r="613" spans="1:24" ht="16.5" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -19449,7 +19490,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" ht="16.5" customHeight="1">
+    <row r="614" spans="1:24" ht="16.5" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -19475,7 +19516,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" ht="16.5" customHeight="1">
+    <row r="615" spans="1:24" ht="16.5" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -19501,7 +19542,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" ht="16.5" customHeight="1">
+    <row r="616" spans="1:24" ht="16.5" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -19527,7 +19568,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" ht="16.5" customHeight="1">
+    <row r="617" spans="1:24" ht="16.5" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -19553,7 +19594,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" ht="16.5" customHeight="1">
+    <row r="618" spans="1:24" ht="16.5" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -19579,7 +19620,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" ht="16.5" customHeight="1">
+    <row r="619" spans="1:24" ht="16.5" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -19605,7 +19646,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" ht="16.5" customHeight="1">
+    <row r="620" spans="1:24" ht="16.5" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -19631,7 +19672,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" ht="16.5" customHeight="1">
+    <row r="621" spans="1:24" ht="16.5" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -19657,7 +19698,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" ht="16.5" customHeight="1">
+    <row r="622" spans="1:24" ht="16.5" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -19683,7 +19724,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" ht="16.5" customHeight="1">
+    <row r="623" spans="1:24" ht="16.5" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -19709,7 +19750,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" ht="16.5" customHeight="1">
+    <row r="624" spans="1:24" ht="16.5" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -19735,7 +19776,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" ht="16.5" customHeight="1">
+    <row r="625" spans="1:24" ht="16.5" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -19761,7 +19802,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" ht="16.5" customHeight="1">
+    <row r="626" spans="1:24" ht="16.5" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -19787,7 +19828,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" ht="16.5" customHeight="1">
+    <row r="627" spans="1:24" ht="16.5" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -19813,7 +19854,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" ht="16.5" customHeight="1">
+    <row r="628" spans="1:24" ht="16.5" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -19839,7 +19880,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" ht="16.5" customHeight="1">
+    <row r="629" spans="1:24" ht="16.5" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -19865,7 +19906,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" ht="16.5" customHeight="1">
+    <row r="630" spans="1:24" ht="16.5" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -19891,7 +19932,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" ht="16.5" customHeight="1">
+    <row r="631" spans="1:24" ht="16.5" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -19917,7 +19958,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" ht="16.5" customHeight="1">
+    <row r="632" spans="1:24" ht="16.5" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -19943,7 +19984,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" ht="16.5" customHeight="1">
+    <row r="633" spans="1:24" ht="16.5" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -19969,7 +20010,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" ht="16.5" customHeight="1">
+    <row r="634" spans="1:24" ht="16.5" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -19995,7 +20036,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" ht="16.5" customHeight="1">
+    <row r="635" spans="1:24" ht="16.5" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -20021,7 +20062,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" ht="16.5" customHeight="1">
+    <row r="636" spans="1:24" ht="16.5" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -20047,7 +20088,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" ht="16.5" customHeight="1">
+    <row r="637" spans="1:24" ht="16.5" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -20073,7 +20114,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" ht="16.5" customHeight="1">
+    <row r="638" spans="1:24" ht="16.5" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -20099,7 +20140,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" ht="16.5" customHeight="1">
+    <row r="639" spans="1:24" ht="16.5" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -20125,7 +20166,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" ht="16.5" customHeight="1">
+    <row r="640" spans="1:24" ht="16.5" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -20151,7 +20192,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" ht="16.5" customHeight="1">
+    <row r="641" spans="1:24" ht="16.5" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -20177,7 +20218,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" ht="16.5" customHeight="1">
+    <row r="642" spans="1:24" ht="16.5" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -20203,7 +20244,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" ht="16.5" customHeight="1">
+    <row r="643" spans="1:24" ht="16.5" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -20229,7 +20270,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" ht="16.5" customHeight="1">
+    <row r="644" spans="1:24" ht="16.5" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -20255,7 +20296,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" ht="16.5" customHeight="1">
+    <row r="645" spans="1:24" ht="16.5" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -20281,7 +20322,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" ht="16.5" customHeight="1">
+    <row r="646" spans="1:24" ht="16.5" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -20307,7 +20348,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" ht="16.5" customHeight="1">
+    <row r="647" spans="1:24" ht="16.5" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -20333,7 +20374,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" ht="16.5" customHeight="1">
+    <row r="648" spans="1:24" ht="16.5" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -20359,7 +20400,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" ht="16.5" customHeight="1">
+    <row r="649" spans="1:24" ht="16.5" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -20385,7 +20426,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" ht="16.5" customHeight="1">
+    <row r="650" spans="1:24" ht="16.5" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -20411,7 +20452,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" ht="16.5" customHeight="1">
+    <row r="651" spans="1:24" ht="16.5" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -20437,7 +20478,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" ht="16.5" customHeight="1">
+    <row r="652" spans="1:24" ht="16.5" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -20463,7 +20504,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" ht="16.5" customHeight="1">
+    <row r="653" spans="1:24" ht="16.5" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -20489,7 +20530,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" ht="16.5" customHeight="1">
+    <row r="654" spans="1:24" ht="16.5" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -20515,7 +20556,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" ht="16.5" customHeight="1">
+    <row r="655" spans="1:24" ht="16.5" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -20541,7 +20582,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" ht="16.5" customHeight="1">
+    <row r="656" spans="1:24" ht="16.5" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -20567,7 +20608,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" ht="16.5" customHeight="1">
+    <row r="657" spans="1:24" ht="16.5" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -20593,7 +20634,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" ht="16.5" customHeight="1">
+    <row r="658" spans="1:24" ht="16.5" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -20619,7 +20660,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" ht="16.5" customHeight="1">
+    <row r="659" spans="1:24" ht="16.5" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -20645,7 +20686,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" ht="16.5" customHeight="1">
+    <row r="660" spans="1:24" ht="16.5" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -20671,7 +20712,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" ht="16.5" customHeight="1">
+    <row r="661" spans="1:24" ht="16.5" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -20697,7 +20738,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" ht="16.5" customHeight="1">
+    <row r="662" spans="1:24" ht="16.5" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -20723,7 +20764,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" ht="16.5" customHeight="1">
+    <row r="663" spans="1:24" ht="16.5" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -20749,7 +20790,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" ht="16.5" customHeight="1">
+    <row r="664" spans="1:24" ht="16.5" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -20775,7 +20816,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" ht="16.5" customHeight="1">
+    <row r="665" spans="1:24" ht="16.5" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -20801,7 +20842,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" ht="16.5" customHeight="1">
+    <row r="666" spans="1:24" ht="16.5" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -20827,7 +20868,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" ht="16.5" customHeight="1">
+    <row r="667" spans="1:24" ht="16.5" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -20853,7 +20894,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" ht="16.5" customHeight="1">
+    <row r="668" spans="1:24" ht="16.5" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -20879,7 +20920,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" ht="16.5" customHeight="1">
+    <row r="669" spans="1:24" ht="16.5" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -20905,7 +20946,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" ht="16.5" customHeight="1">
+    <row r="670" spans="1:24" ht="16.5" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -20931,7 +20972,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" ht="16.5" customHeight="1">
+    <row r="671" spans="1:24" ht="16.5" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -20957,7 +20998,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" ht="16.5" customHeight="1">
+    <row r="672" spans="1:24" ht="16.5" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -20983,7 +21024,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" ht="16.5" customHeight="1">
+    <row r="673" spans="1:24" ht="16.5" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -21009,7 +21050,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" ht="16.5" customHeight="1">
+    <row r="674" spans="1:24" ht="16.5" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -21035,7 +21076,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" ht="16.5" customHeight="1">
+    <row r="675" spans="1:24" ht="16.5" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -21061,7 +21102,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" ht="16.5" customHeight="1">
+    <row r="676" spans="1:24" ht="16.5" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -21087,7 +21128,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" ht="16.5" customHeight="1">
+    <row r="677" spans="1:24" ht="16.5" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -21113,7 +21154,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" ht="16.5" customHeight="1">
+    <row r="678" spans="1:24" ht="16.5" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -21139,7 +21180,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" ht="16.5" customHeight="1">
+    <row r="679" spans="1:24" ht="16.5" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -21165,7 +21206,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" ht="16.5" customHeight="1">
+    <row r="680" spans="1:24" ht="16.5" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -21191,7 +21232,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" ht="16.5" customHeight="1">
+    <row r="681" spans="1:24" ht="16.5" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -21217,7 +21258,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" ht="16.5" customHeight="1">
+    <row r="682" spans="1:24" ht="16.5" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -21243,7 +21284,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" ht="16.5" customHeight="1">
+    <row r="683" spans="1:24" ht="16.5" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -21269,7 +21310,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" ht="16.5" customHeight="1">
+    <row r="684" spans="1:24" ht="16.5" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -21295,7 +21336,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" ht="16.5" customHeight="1">
+    <row r="685" spans="1:24" ht="16.5" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -21321,7 +21362,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" ht="16.5" customHeight="1">
+    <row r="686" spans="1:24" ht="16.5" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -21347,7 +21388,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" ht="16.5" customHeight="1">
+    <row r="687" spans="1:24" ht="16.5" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -21373,7 +21414,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" ht="16.5" customHeight="1">
+    <row r="688" spans="1:24" ht="16.5" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -21399,7 +21440,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" ht="16.5" customHeight="1">
+    <row r="689" spans="1:24" ht="16.5" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -21425,7 +21466,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" ht="16.5" customHeight="1">
+    <row r="690" spans="1:24" ht="16.5" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -21451,7 +21492,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" ht="16.5" customHeight="1">
+    <row r="691" spans="1:24" ht="16.5" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -21477,7 +21518,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" ht="16.5" customHeight="1">
+    <row r="692" spans="1:24" ht="16.5" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -21503,7 +21544,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" ht="16.5" customHeight="1">
+    <row r="693" spans="1:24" ht="16.5" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -21529,7 +21570,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" ht="16.5" customHeight="1">
+    <row r="694" spans="1:24" ht="16.5" customHeight="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -21555,7 +21596,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" ht="16.5" customHeight="1">
+    <row r="695" spans="1:24" ht="16.5" customHeight="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -21581,7 +21622,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" ht="16.5" customHeight="1">
+    <row r="696" spans="1:24" ht="16.5" customHeight="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -21607,7 +21648,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" ht="16.5" customHeight="1">
+    <row r="697" spans="1:24" ht="16.5" customHeight="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -21633,7 +21674,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" ht="16.5" customHeight="1">
+    <row r="698" spans="1:24" ht="16.5" customHeight="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -21659,7 +21700,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" ht="16.5" customHeight="1">
+    <row r="699" spans="1:24" ht="16.5" customHeight="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -21685,7 +21726,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" ht="16.5" customHeight="1">
+    <row r="700" spans="1:24" ht="16.5" customHeight="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -21711,7 +21752,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" ht="16.5" customHeight="1">
+    <row r="701" spans="1:24" ht="16.5" customHeight="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -21737,7 +21778,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" ht="16.5" customHeight="1">
+    <row r="702" spans="1:24" ht="16.5" customHeight="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -21763,7 +21804,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" ht="16.5" customHeight="1">
+    <row r="703" spans="1:24" ht="16.5" customHeight="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -21789,7 +21830,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" ht="16.5" customHeight="1">
+    <row r="704" spans="1:24" ht="16.5" customHeight="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -21815,7 +21856,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" ht="16.5" customHeight="1">
+    <row r="705" spans="1:24" ht="16.5" customHeight="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -21841,7 +21882,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" ht="16.5" customHeight="1">
+    <row r="706" spans="1:24" ht="16.5" customHeight="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -21867,7 +21908,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" ht="16.5" customHeight="1">
+    <row r="707" spans="1:24" ht="16.5" customHeight="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -21893,7 +21934,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" ht="16.5" customHeight="1">
+    <row r="708" spans="1:24" ht="16.5" customHeight="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -21919,7 +21960,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" ht="16.5" customHeight="1">
+    <row r="709" spans="1:24" ht="16.5" customHeight="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -21945,7 +21986,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" ht="16.5" customHeight="1">
+    <row r="710" spans="1:24" ht="16.5" customHeight="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -21971,7 +22012,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" ht="16.5" customHeight="1">
+    <row r="711" spans="1:24" ht="16.5" customHeight="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -21997,7 +22038,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" ht="16.5" customHeight="1">
+    <row r="712" spans="1:24" ht="16.5" customHeight="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -22023,7 +22064,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" ht="16.5" customHeight="1">
+    <row r="713" spans="1:24" ht="16.5" customHeight="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -22049,7 +22090,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" ht="16.5" customHeight="1">
+    <row r="714" spans="1:24" ht="16.5" customHeight="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -22075,7 +22116,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" ht="16.5" customHeight="1">
+    <row r="715" spans="1:24" ht="16.5" customHeight="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -22101,7 +22142,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" ht="16.5" customHeight="1">
+    <row r="716" spans="1:24" ht="16.5" customHeight="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -22127,7 +22168,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" ht="16.5" customHeight="1">
+    <row r="717" spans="1:24" ht="16.5" customHeight="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -22153,7 +22194,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" ht="16.5" customHeight="1">
+    <row r="718" spans="1:24" ht="16.5" customHeight="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -22179,7 +22220,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" ht="16.5" customHeight="1">
+    <row r="719" spans="1:24" ht="16.5" customHeight="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -22205,7 +22246,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" ht="16.5" customHeight="1">
+    <row r="720" spans="1:24" ht="16.5" customHeight="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -22231,7 +22272,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" ht="16.5" customHeight="1">
+    <row r="721" spans="1:24" ht="16.5" customHeight="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -22257,7 +22298,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" ht="16.5" customHeight="1">
+    <row r="722" spans="1:24" ht="16.5" customHeight="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -22283,7 +22324,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" ht="16.5" customHeight="1">
+    <row r="723" spans="1:24" ht="16.5" customHeight="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -22309,7 +22350,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" ht="16.5" customHeight="1">
+    <row r="724" spans="1:24" ht="16.5" customHeight="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -22335,7 +22376,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" ht="16.5" customHeight="1">
+    <row r="725" spans="1:24" ht="16.5" customHeight="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -22361,7 +22402,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" ht="16.5" customHeight="1">
+    <row r="726" spans="1:24" ht="16.5" customHeight="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -22387,7 +22428,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" ht="16.5" customHeight="1">
+    <row r="727" spans="1:24" ht="16.5" customHeight="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -22413,7 +22454,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" ht="16.5" customHeight="1">
+    <row r="728" spans="1:24" ht="16.5" customHeight="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -22439,7 +22480,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" ht="16.5" customHeight="1">
+    <row r="729" spans="1:24" ht="16.5" customHeight="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -22465,7 +22506,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" ht="16.5" customHeight="1">
+    <row r="730" spans="1:24" ht="16.5" customHeight="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -22491,7 +22532,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" ht="16.5" customHeight="1">
+    <row r="731" spans="1:24" ht="16.5" customHeight="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -22517,7 +22558,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" ht="16.5" customHeight="1">
+    <row r="732" spans="1:24" ht="16.5" customHeight="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -22543,7 +22584,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" ht="16.5" customHeight="1">
+    <row r="733" spans="1:24" ht="16.5" customHeight="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -22569,7 +22610,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" ht="16.5" customHeight="1">
+    <row r="734" spans="1:24" ht="16.5" customHeight="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -22595,7 +22636,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" ht="16.5" customHeight="1">
+    <row r="735" spans="1:24" ht="16.5" customHeight="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -22621,7 +22662,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" ht="16.5" customHeight="1">
+    <row r="736" spans="1:24" ht="16.5" customHeight="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -22647,7 +22688,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" ht="16.5" customHeight="1">
+    <row r="737" spans="1:24" ht="16.5" customHeight="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -22673,7 +22714,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" ht="16.5" customHeight="1">
+    <row r="738" spans="1:24" ht="16.5" customHeight="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -22699,7 +22740,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" ht="16.5" customHeight="1">
+    <row r="739" spans="1:24" ht="16.5" customHeight="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -22725,7 +22766,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" ht="16.5" customHeight="1">
+    <row r="740" spans="1:24" ht="16.5" customHeight="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -22751,7 +22792,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" ht="16.5" customHeight="1">
+    <row r="741" spans="1:24" ht="16.5" customHeight="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -22777,7 +22818,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" ht="16.5" customHeight="1">
+    <row r="742" spans="1:24" ht="16.5" customHeight="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -22803,7 +22844,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" ht="16.5" customHeight="1">
+    <row r="743" spans="1:24" ht="16.5" customHeight="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -22829,7 +22870,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" ht="16.5" customHeight="1">
+    <row r="744" spans="1:24" ht="16.5" customHeight="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -22855,7 +22896,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" ht="16.5" customHeight="1">
+    <row r="745" spans="1:24" ht="16.5" customHeight="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -22881,7 +22922,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" ht="16.5" customHeight="1">
+    <row r="746" spans="1:24" ht="16.5" customHeight="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -22907,7 +22948,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" ht="16.5" customHeight="1">
+    <row r="747" spans="1:24" ht="16.5" customHeight="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -22933,7 +22974,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" ht="16.5" customHeight="1">
+    <row r="748" spans="1:24" ht="16.5" customHeight="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -22959,7 +23000,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" ht="16.5" customHeight="1">
+    <row r="749" spans="1:24" ht="16.5" customHeight="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -22985,7 +23026,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" ht="16.5" customHeight="1">
+    <row r="750" spans="1:24" ht="16.5" customHeight="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -23011,7 +23052,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" ht="16.5" customHeight="1">
+    <row r="751" spans="1:24" ht="16.5" customHeight="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -23037,7 +23078,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" ht="16.5" customHeight="1">
+    <row r="752" spans="1:24" ht="16.5" customHeight="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -23063,7 +23104,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" ht="16.5" customHeight="1">
+    <row r="753" spans="1:24" ht="16.5" customHeight="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -23089,7 +23130,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" ht="16.5" customHeight="1">
+    <row r="754" spans="1:24" ht="16.5" customHeight="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -23115,7 +23156,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" ht="16.5" customHeight="1">
+    <row r="755" spans="1:24" ht="16.5" customHeight="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -23141,7 +23182,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" ht="16.5" customHeight="1">
+    <row r="756" spans="1:24" ht="16.5" customHeight="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -23167,7 +23208,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" ht="16.5" customHeight="1">
+    <row r="757" spans="1:24" ht="16.5" customHeight="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -23193,7 +23234,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" ht="16.5" customHeight="1">
+    <row r="758" spans="1:24" ht="16.5" customHeight="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -23219,7 +23260,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" ht="16.5" customHeight="1">
+    <row r="759" spans="1:24" ht="16.5" customHeight="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -23245,7 +23286,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" ht="16.5" customHeight="1">
+    <row r="760" spans="1:24" ht="16.5" customHeight="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -23271,7 +23312,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" ht="16.5" customHeight="1">
+    <row r="761" spans="1:24" ht="16.5" customHeight="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -23297,7 +23338,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" ht="16.5" customHeight="1">
+    <row r="762" spans="1:24" ht="16.5" customHeight="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -23323,7 +23364,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" ht="16.5" customHeight="1">
+    <row r="763" spans="1:24" ht="16.5" customHeight="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -23349,7 +23390,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" ht="16.5" customHeight="1">
+    <row r="764" spans="1:24" ht="16.5" customHeight="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -23375,7 +23416,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" ht="16.5" customHeight="1">
+    <row r="765" spans="1:24" ht="16.5" customHeight="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -23401,7 +23442,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" ht="16.5" customHeight="1">
+    <row r="766" spans="1:24" ht="16.5" customHeight="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -23427,7 +23468,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" ht="16.5" customHeight="1">
+    <row r="767" spans="1:24" ht="16.5" customHeight="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -23453,7 +23494,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" ht="16.5" customHeight="1">
+    <row r="768" spans="1:24" ht="16.5" customHeight="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -23479,7 +23520,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" ht="16.5" customHeight="1">
+    <row r="769" spans="1:24" ht="16.5" customHeight="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -23505,7 +23546,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" ht="16.5" customHeight="1">
+    <row r="770" spans="1:24" ht="16.5" customHeight="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -23531,7 +23572,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" ht="16.5" customHeight="1">
+    <row r="771" spans="1:24" ht="16.5" customHeight="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -23557,7 +23598,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" ht="16.5" customHeight="1">
+    <row r="772" spans="1:24" ht="16.5" customHeight="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -23583,7 +23624,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" ht="16.5" customHeight="1">
+    <row r="773" spans="1:24" ht="16.5" customHeight="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -23609,7 +23650,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" ht="16.5" customHeight="1">
+    <row r="774" spans="1:24" ht="16.5" customHeight="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -23635,7 +23676,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" ht="16.5" customHeight="1">
+    <row r="775" spans="1:24" ht="16.5" customHeight="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -23661,7 +23702,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" ht="16.5" customHeight="1">
+    <row r="776" spans="1:24" ht="16.5" customHeight="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -23687,7 +23728,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" ht="16.5" customHeight="1">
+    <row r="777" spans="1:24" ht="16.5" customHeight="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -23713,7 +23754,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" ht="16.5" customHeight="1">
+    <row r="778" spans="1:24" ht="16.5" customHeight="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -23739,7 +23780,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" ht="16.5" customHeight="1">
+    <row r="779" spans="1:24" ht="16.5" customHeight="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -23765,7 +23806,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" ht="16.5" customHeight="1">
+    <row r="780" spans="1:24" ht="16.5" customHeight="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -23791,7 +23832,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" ht="16.5" customHeight="1">
+    <row r="781" spans="1:24" ht="16.5" customHeight="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -23817,7 +23858,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" ht="16.5" customHeight="1">
+    <row r="782" spans="1:24" ht="16.5" customHeight="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -23843,7 +23884,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" ht="16.5" customHeight="1">
+    <row r="783" spans="1:24" ht="16.5" customHeight="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -23869,7 +23910,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" ht="16.5" customHeight="1">
+    <row r="784" spans="1:24" ht="16.5" customHeight="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -23895,7 +23936,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" ht="16.5" customHeight="1">
+    <row r="785" spans="1:24" ht="16.5" customHeight="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -23921,7 +23962,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" ht="16.5" customHeight="1">
+    <row r="786" spans="1:24" ht="16.5" customHeight="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -23947,7 +23988,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" ht="16.5" customHeight="1">
+    <row r="787" spans="1:24" ht="16.5" customHeight="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -23973,7 +24014,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" ht="16.5" customHeight="1">
+    <row r="788" spans="1:24" ht="16.5" customHeight="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -23999,7 +24040,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" ht="16.5" customHeight="1">
+    <row r="789" spans="1:24" ht="16.5" customHeight="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -24025,7 +24066,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" ht="16.5" customHeight="1">
+    <row r="790" spans="1:24" ht="16.5" customHeight="1">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -24051,7 +24092,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" ht="16.5" customHeight="1">
+    <row r="791" spans="1:24" ht="16.5" customHeight="1">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -24077,7 +24118,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" ht="16.5" customHeight="1">
+    <row r="792" spans="1:24" ht="16.5" customHeight="1">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -24103,7 +24144,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" ht="16.5" customHeight="1">
+    <row r="793" spans="1:24" ht="16.5" customHeight="1">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -24129,7 +24170,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" ht="16.5" customHeight="1">
+    <row r="794" spans="1:24" ht="16.5" customHeight="1">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -24155,7 +24196,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" ht="16.5" customHeight="1">
+    <row r="795" spans="1:24" ht="16.5" customHeight="1">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -24181,7 +24222,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" ht="16.5" customHeight="1">
+    <row r="796" spans="1:24" ht="16.5" customHeight="1">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -24207,7 +24248,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" ht="16.5" customHeight="1">
+    <row r="797" spans="1:24" ht="16.5" customHeight="1">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -24233,7 +24274,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" ht="16.5" customHeight="1">
+    <row r="798" spans="1:24" ht="16.5" customHeight="1">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -24259,7 +24300,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" ht="16.5" customHeight="1">
+    <row r="799" spans="1:24" ht="16.5" customHeight="1">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -24285,7 +24326,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" ht="16.5" customHeight="1">
+    <row r="800" spans="1:24" ht="16.5" customHeight="1">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -24311,7 +24352,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" ht="16.5" customHeight="1">
+    <row r="801" spans="1:24" ht="16.5" customHeight="1">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -24337,7 +24378,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" ht="16.5" customHeight="1">
+    <row r="802" spans="1:24" ht="16.5" customHeight="1">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -24363,7 +24404,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" ht="16.5" customHeight="1">
+    <row r="803" spans="1:24" ht="16.5" customHeight="1">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -24389,7 +24430,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" ht="16.5" customHeight="1">
+    <row r="804" spans="1:24" ht="16.5" customHeight="1">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -24415,7 +24456,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" ht="16.5" customHeight="1">
+    <row r="805" spans="1:24" ht="16.5" customHeight="1">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -24441,7 +24482,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" ht="16.5" customHeight="1">
+    <row r="806" spans="1:24" ht="16.5" customHeight="1">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -24467,7 +24508,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" ht="16.5" customHeight="1">
+    <row r="807" spans="1:24" ht="16.5" customHeight="1">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -24493,7 +24534,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" ht="16.5" customHeight="1">
+    <row r="808" spans="1:24" ht="16.5" customHeight="1">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -24519,7 +24560,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" ht="16.5" customHeight="1">
+    <row r="809" spans="1:24" ht="16.5" customHeight="1">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -24545,7 +24586,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" ht="16.5" customHeight="1">
+    <row r="810" spans="1:24" ht="16.5" customHeight="1">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -24571,7 +24612,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" ht="16.5" customHeight="1">
+    <row r="811" spans="1:24" ht="16.5" customHeight="1">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -24597,7 +24638,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" ht="16.5" customHeight="1">
+    <row r="812" spans="1:24" ht="16.5" customHeight="1">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -24623,7 +24664,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" ht="16.5" customHeight="1">
+    <row r="813" spans="1:24" ht="16.5" customHeight="1">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -24649,7 +24690,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" ht="16.5" customHeight="1">
+    <row r="814" spans="1:24" ht="16.5" customHeight="1">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -24675,7 +24716,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" ht="16.5" customHeight="1">
+    <row r="815" spans="1:24" ht="16.5" customHeight="1">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -24701,7 +24742,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" ht="16.5" customHeight="1">
+    <row r="816" spans="1:24" ht="16.5" customHeight="1">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -24727,7 +24768,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" ht="16.5" customHeight="1">
+    <row r="817" spans="1:24" ht="16.5" customHeight="1">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -24753,7 +24794,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" ht="16.5" customHeight="1">
+    <row r="818" spans="1:24" ht="16.5" customHeight="1">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -24779,7 +24820,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" ht="16.5" customHeight="1">
+    <row r="819" spans="1:24" ht="16.5" customHeight="1">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -24805,7 +24846,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" ht="16.5" customHeight="1">
+    <row r="820" spans="1:24" ht="16.5" customHeight="1">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -24831,7 +24872,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" ht="16.5" customHeight="1">
+    <row r="821" spans="1:24" ht="16.5" customHeight="1">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -24857,7 +24898,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" ht="16.5" customHeight="1">
+    <row r="822" spans="1:24" ht="16.5" customHeight="1">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -24883,7 +24924,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" ht="16.5" customHeight="1">
+    <row r="823" spans="1:24" ht="16.5" customHeight="1">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -24909,7 +24950,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" ht="16.5" customHeight="1">
+    <row r="824" spans="1:24" ht="16.5" customHeight="1">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -24935,7 +24976,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" ht="16.5" customHeight="1">
+    <row r="825" spans="1:24" ht="16.5" customHeight="1">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -24961,7 +25002,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" ht="16.5" customHeight="1">
+    <row r="826" spans="1:24" ht="16.5" customHeight="1">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -24987,7 +25028,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" ht="16.5" customHeight="1">
+    <row r="827" spans="1:24" ht="16.5" customHeight="1">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -25013,7 +25054,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" ht="16.5" customHeight="1">
+    <row r="828" spans="1:24" ht="16.5" customHeight="1">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -25039,7 +25080,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" ht="16.5" customHeight="1">
+    <row r="829" spans="1:24" ht="16.5" customHeight="1">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -25065,7 +25106,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" ht="16.5" customHeight="1">
+    <row r="830" spans="1:24" ht="16.5" customHeight="1">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -25091,7 +25132,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" ht="16.5" customHeight="1">
+    <row r="831" spans="1:24" ht="16.5" customHeight="1">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -25117,7 +25158,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" ht="16.5" customHeight="1">
+    <row r="832" spans="1:24" ht="16.5" customHeight="1">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -25143,7 +25184,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" ht="16.5" customHeight="1">
+    <row r="833" spans="1:24" ht="16.5" customHeight="1">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -25169,7 +25210,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" ht="16.5" customHeight="1">
+    <row r="834" spans="1:24" ht="16.5" customHeight="1">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -25195,7 +25236,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" ht="16.5" customHeight="1">
+    <row r="835" spans="1:24" ht="16.5" customHeight="1">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -25221,7 +25262,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" ht="16.5" customHeight="1">
+    <row r="836" spans="1:24" ht="16.5" customHeight="1">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -25247,7 +25288,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" ht="16.5" customHeight="1">
+    <row r="837" spans="1:24" ht="16.5" customHeight="1">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -25273,7 +25314,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" ht="16.5" customHeight="1">
+    <row r="838" spans="1:24" ht="16.5" customHeight="1">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -25299,7 +25340,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" ht="16.5" customHeight="1">
+    <row r="839" spans="1:24" ht="16.5" customHeight="1">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -25325,7 +25366,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" ht="16.5" customHeight="1">
+    <row r="840" spans="1:24" ht="16.5" customHeight="1">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -25351,7 +25392,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" ht="16.5" customHeight="1">
+    <row r="841" spans="1:24" ht="16.5" customHeight="1">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -25377,7 +25418,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" ht="16.5" customHeight="1">
+    <row r="842" spans="1:24" ht="16.5" customHeight="1">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -25403,7 +25444,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" ht="16.5" customHeight="1">
+    <row r="843" spans="1:24" ht="16.5" customHeight="1">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -25429,7 +25470,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" ht="16.5" customHeight="1">
+    <row r="844" spans="1:24" ht="16.5" customHeight="1">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -25455,7 +25496,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" ht="16.5" customHeight="1">
+    <row r="845" spans="1:24" ht="16.5" customHeight="1">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -25481,7 +25522,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" ht="16.5" customHeight="1">
+    <row r="846" spans="1:24" ht="16.5" customHeight="1">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -25507,7 +25548,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" ht="16.5" customHeight="1">
+    <row r="847" spans="1:24" ht="16.5" customHeight="1">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -25533,7 +25574,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" ht="16.5" customHeight="1">
+    <row r="848" spans="1:24" ht="16.5" customHeight="1">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -25559,7 +25600,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" ht="16.5" customHeight="1">
+    <row r="849" spans="1:24" ht="16.5" customHeight="1">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -25585,7 +25626,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" ht="16.5" customHeight="1">
+    <row r="850" spans="1:24" ht="16.5" customHeight="1">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -25611,7 +25652,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" ht="16.5" customHeight="1">
+    <row r="851" spans="1:24" ht="16.5" customHeight="1">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -25637,7 +25678,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" ht="16.5" customHeight="1">
+    <row r="852" spans="1:24" ht="16.5" customHeight="1">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -25663,7 +25704,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" ht="16.5" customHeight="1">
+    <row r="853" spans="1:24" ht="16.5" customHeight="1">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -25689,7 +25730,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" ht="16.5" customHeight="1">
+    <row r="854" spans="1:24" ht="16.5" customHeight="1">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -25715,7 +25756,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" ht="16.5" customHeight="1">
+    <row r="855" spans="1:24" ht="16.5" customHeight="1">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -25741,7 +25782,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" ht="16.5" customHeight="1">
+    <row r="856" spans="1:24" ht="16.5" customHeight="1">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -25767,7 +25808,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" ht="16.5" customHeight="1">
+    <row r="857" spans="1:24" ht="16.5" customHeight="1">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -25793,7 +25834,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" ht="16.5" customHeight="1">
+    <row r="858" spans="1:24" ht="16.5" customHeight="1">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -25819,7 +25860,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" ht="16.5" customHeight="1">
+    <row r="859" spans="1:24" ht="16.5" customHeight="1">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -25845,7 +25886,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" ht="16.5" customHeight="1">
+    <row r="860" spans="1:24" ht="16.5" customHeight="1">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -25871,7 +25912,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" ht="16.5" customHeight="1">
+    <row r="861" spans="1:24" ht="16.5" customHeight="1">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -25897,7 +25938,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" ht="16.5" customHeight="1">
+    <row r="862" spans="1:24" ht="16.5" customHeight="1">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -25923,7 +25964,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" ht="16.5" customHeight="1">
+    <row r="863" spans="1:24" ht="16.5" customHeight="1">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -25949,7 +25990,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" ht="16.5" customHeight="1">
+    <row r="864" spans="1:24" ht="16.5" customHeight="1">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -25975,7 +26016,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" ht="16.5" customHeight="1">
+    <row r="865" spans="1:24" ht="16.5" customHeight="1">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -26001,7 +26042,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" ht="16.5" customHeight="1">
+    <row r="866" spans="1:24" ht="16.5" customHeight="1">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -26027,7 +26068,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" ht="16.5" customHeight="1">
+    <row r="867" spans="1:24" ht="16.5" customHeight="1">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -26053,7 +26094,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" ht="16.5" customHeight="1">
+    <row r="868" spans="1:24" ht="16.5" customHeight="1">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -26079,7 +26120,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" ht="16.5" customHeight="1">
+    <row r="869" spans="1:24" ht="16.5" customHeight="1">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -26105,7 +26146,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" ht="16.5" customHeight="1">
+    <row r="870" spans="1:24" ht="16.5" customHeight="1">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -26131,7 +26172,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" ht="16.5" customHeight="1">
+    <row r="871" spans="1:24" ht="16.5" customHeight="1">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -26157,7 +26198,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" ht="16.5" customHeight="1">
+    <row r="872" spans="1:24" ht="16.5" customHeight="1">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -26183,7 +26224,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" ht="16.5" customHeight="1">
+    <row r="873" spans="1:24" ht="16.5" customHeight="1">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -26209,7 +26250,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" ht="16.5" customHeight="1">
+    <row r="874" spans="1:24" ht="16.5" customHeight="1">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -26235,7 +26276,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" ht="16.5" customHeight="1">
+    <row r="875" spans="1:24" ht="16.5" customHeight="1">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -26261,7 +26302,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" ht="16.5" customHeight="1">
+    <row r="876" spans="1:24" ht="16.5" customHeight="1">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -26287,7 +26328,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" ht="16.5" customHeight="1">
+    <row r="877" spans="1:24" ht="16.5" customHeight="1">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -26313,7 +26354,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" ht="16.5" customHeight="1">
+    <row r="878" spans="1:24" ht="16.5" customHeight="1">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -26339,7 +26380,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" ht="16.5" customHeight="1">
+    <row r="879" spans="1:24" ht="16.5" customHeight="1">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -26365,7 +26406,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" ht="16.5" customHeight="1">
+    <row r="880" spans="1:24" ht="16.5" customHeight="1">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -26391,7 +26432,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" ht="16.5" customHeight="1">
+    <row r="881" spans="1:24" ht="16.5" customHeight="1">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -26417,7 +26458,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" ht="16.5" customHeight="1">
+    <row r="882" spans="1:24" ht="16.5" customHeight="1">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -26443,7 +26484,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" ht="16.5" customHeight="1">
+    <row r="883" spans="1:24" ht="16.5" customHeight="1">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -26469,7 +26510,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" ht="16.5" customHeight="1">
+    <row r="884" spans="1:24" ht="16.5" customHeight="1">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -26495,7 +26536,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" ht="16.5" customHeight="1">
+    <row r="885" spans="1:24" ht="16.5" customHeight="1">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -26521,7 +26562,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" ht="16.5" customHeight="1">
+    <row r="886" spans="1:24" ht="16.5" customHeight="1">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -26547,7 +26588,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" ht="16.5" customHeight="1">
+    <row r="887" spans="1:24" ht="16.5" customHeight="1">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -26573,7 +26614,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" ht="16.5" customHeight="1">
+    <row r="888" spans="1:24" ht="16.5" customHeight="1">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -26599,7 +26640,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" ht="16.5" customHeight="1">
+    <row r="889" spans="1:24" ht="16.5" customHeight="1">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -26625,7 +26666,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" ht="16.5" customHeight="1">
+    <row r="890" spans="1:24" ht="16.5" customHeight="1">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -26651,7 +26692,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" ht="16.5" customHeight="1">
+    <row r="891" spans="1:24" ht="16.5" customHeight="1">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -26677,7 +26718,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" ht="16.5" customHeight="1">
+    <row r="892" spans="1:24" ht="16.5" customHeight="1">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -26703,7 +26744,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" ht="16.5" customHeight="1">
+    <row r="893" spans="1:24" ht="16.5" customHeight="1">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -26729,7 +26770,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" ht="16.5" customHeight="1">
+    <row r="894" spans="1:24" ht="16.5" customHeight="1">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -26755,7 +26796,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" ht="16.5" customHeight="1">
+    <row r="895" spans="1:24" ht="16.5" customHeight="1">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -26781,7 +26822,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" ht="16.5" customHeight="1">
+    <row r="896" spans="1:24" ht="16.5" customHeight="1">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -26807,7 +26848,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" ht="16.5" customHeight="1">
+    <row r="897" spans="1:24" ht="16.5" customHeight="1">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -26833,7 +26874,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" ht="16.5" customHeight="1">
+    <row r="898" spans="1:24" ht="16.5" customHeight="1">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -26859,7 +26900,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" ht="16.5" customHeight="1">
+    <row r="899" spans="1:24" ht="16.5" customHeight="1">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -26885,7 +26926,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" ht="16.5" customHeight="1">
+    <row r="900" spans="1:24" ht="16.5" customHeight="1">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -26911,7 +26952,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" ht="16.5" customHeight="1">
+    <row r="901" spans="1:24" ht="16.5" customHeight="1">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -26937,7 +26978,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" ht="16.5" customHeight="1">
+    <row r="902" spans="1:24" ht="16.5" customHeight="1">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -26963,7 +27004,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" ht="16.5" customHeight="1">
+    <row r="903" spans="1:24" ht="16.5" customHeight="1">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -26989,7 +27030,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" ht="16.5" customHeight="1">
+    <row r="904" spans="1:24" ht="16.5" customHeight="1">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -27015,7 +27056,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" ht="16.5" customHeight="1">
+    <row r="905" spans="1:24" ht="16.5" customHeight="1">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -27041,7 +27082,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" ht="16.5" customHeight="1">
+    <row r="906" spans="1:24" ht="16.5" customHeight="1">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -27067,7 +27108,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" ht="16.5" customHeight="1">
+    <row r="907" spans="1:24" ht="16.5" customHeight="1">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -27093,7 +27134,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" ht="16.5" customHeight="1">
+    <row r="908" spans="1:24" ht="16.5" customHeight="1">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -27119,7 +27160,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" ht="16.5" customHeight="1">
+    <row r="909" spans="1:24" ht="16.5" customHeight="1">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -27145,7 +27186,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" ht="16.5" customHeight="1">
+    <row r="910" spans="1:24" ht="16.5" customHeight="1">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -27171,7 +27212,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" ht="16.5" customHeight="1">
+    <row r="911" spans="1:24" ht="16.5" customHeight="1">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -27197,7 +27238,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" ht="16.5" customHeight="1">
+    <row r="912" spans="1:24" ht="16.5" customHeight="1">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -27223,7 +27264,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" ht="16.5" customHeight="1">
+    <row r="913" spans="1:24" ht="16.5" customHeight="1">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -27249,7 +27290,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" ht="16.5" customHeight="1">
+    <row r="914" spans="1:24" ht="16.5" customHeight="1">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -27275,7 +27316,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" ht="16.5" customHeight="1">
+    <row r="915" spans="1:24" ht="16.5" customHeight="1">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -27301,7 +27342,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" ht="16.5" customHeight="1">
+    <row r="916" spans="1:24" ht="16.5" customHeight="1">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -27327,7 +27368,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" ht="16.5" customHeight="1">
+    <row r="917" spans="1:24" ht="16.5" customHeight="1">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -27353,7 +27394,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" ht="16.5" customHeight="1">
+    <row r="918" spans="1:24" ht="16.5" customHeight="1">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -27379,7 +27420,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" ht="16.5" customHeight="1">
+    <row r="919" spans="1:24" ht="16.5" customHeight="1">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -27405,7 +27446,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" ht="16.5" customHeight="1">
+    <row r="920" spans="1:24" ht="16.5" customHeight="1">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -27431,7 +27472,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" ht="16.5" customHeight="1">
+    <row r="921" spans="1:24" ht="16.5" customHeight="1">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -27457,7 +27498,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" ht="16.5" customHeight="1">
+    <row r="922" spans="1:24" ht="16.5" customHeight="1">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -27483,7 +27524,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" ht="16.5" customHeight="1">
+    <row r="923" spans="1:24" ht="16.5" customHeight="1">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -27509,7 +27550,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" ht="16.5" customHeight="1">
+    <row r="924" spans="1:24" ht="16.5" customHeight="1">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -27535,7 +27576,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" ht="16.5" customHeight="1">
+    <row r="925" spans="1:24" ht="16.5" customHeight="1">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -27561,7 +27602,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" ht="16.5" customHeight="1">
+    <row r="926" spans="1:24" ht="16.5" customHeight="1">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -27587,7 +27628,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" ht="16.5" customHeight="1">
+    <row r="927" spans="1:24" ht="16.5" customHeight="1">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -27613,7 +27654,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" ht="16.5" customHeight="1">
+    <row r="928" spans="1:24" ht="16.5" customHeight="1">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -27639,7 +27680,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" ht="16.5" customHeight="1">
+    <row r="929" spans="1:24" ht="16.5" customHeight="1">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -27665,7 +27706,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" ht="16.5" customHeight="1">
+    <row r="930" spans="1:24" ht="16.5" customHeight="1">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -27691,7 +27732,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" ht="16.5" customHeight="1">
+    <row r="931" spans="1:24" ht="16.5" customHeight="1">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -27717,7 +27758,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" ht="16.5" customHeight="1">
+    <row r="932" spans="1:24" ht="16.5" customHeight="1">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -27743,7 +27784,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" ht="16.5" customHeight="1">
+    <row r="933" spans="1:24" ht="16.5" customHeight="1">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -27769,7 +27810,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" ht="16.5" customHeight="1">
+    <row r="934" spans="1:24" ht="16.5" customHeight="1">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -27795,7 +27836,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" ht="16.5" customHeight="1">
+    <row r="935" spans="1:24" ht="16.5" customHeight="1">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -27821,7 +27862,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" ht="16.5" customHeight="1">
+    <row r="936" spans="1:24" ht="16.5" customHeight="1">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -27847,7 +27888,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" ht="16.5" customHeight="1">
+    <row r="937" spans="1:24" ht="16.5" customHeight="1">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -27873,7 +27914,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" ht="16.5" customHeight="1">
+    <row r="938" spans="1:24" ht="16.5" customHeight="1">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -27899,7 +27940,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" ht="16.5" customHeight="1">
+    <row r="939" spans="1:24" ht="16.5" customHeight="1">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -27925,7 +27966,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" ht="16.5" customHeight="1">
+    <row r="940" spans="1:24" ht="16.5" customHeight="1">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -27951,7 +27992,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" ht="16.5" customHeight="1">
+    <row r="941" spans="1:24" ht="16.5" customHeight="1">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -27977,7 +28018,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" ht="16.5" customHeight="1">
+    <row r="942" spans="1:24" ht="16.5" customHeight="1">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -28003,7 +28044,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" ht="16.5" customHeight="1">
+    <row r="943" spans="1:24" ht="16.5" customHeight="1">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -28029,7 +28070,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" ht="16.5" customHeight="1">
+    <row r="944" spans="1:24" ht="16.5" customHeight="1">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -28055,7 +28096,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" ht="16.5" customHeight="1">
+    <row r="945" spans="1:24" ht="16.5" customHeight="1">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -28081,7 +28122,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" ht="16.5" customHeight="1">
+    <row r="946" spans="1:24" ht="16.5" customHeight="1">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -28107,7 +28148,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" ht="16.5" customHeight="1">
+    <row r="947" spans="1:24" ht="16.5" customHeight="1">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -28133,7 +28174,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" ht="16.5" customHeight="1">
+    <row r="948" spans="1:24" ht="16.5" customHeight="1">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -28159,7 +28200,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" ht="16.5" customHeight="1">
+    <row r="949" spans="1:24" ht="16.5" customHeight="1">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -28185,7 +28226,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" ht="16.5" customHeight="1">
+    <row r="950" spans="1:24" ht="16.5" customHeight="1">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -28211,7 +28252,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" ht="16.5" customHeight="1">
+    <row r="951" spans="1:24" ht="16.5" customHeight="1">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -28237,7 +28278,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" ht="16.5" customHeight="1">
+    <row r="952" spans="1:24" ht="16.5" customHeight="1">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -28263,7 +28304,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" ht="16.5" customHeight="1">
+    <row r="953" spans="1:24" ht="16.5" customHeight="1">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -28289,7 +28330,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" ht="16.5" customHeight="1">
+    <row r="954" spans="1:24" ht="16.5" customHeight="1">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -28315,7 +28356,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" ht="16.5" customHeight="1">
+    <row r="955" spans="1:24" ht="16.5" customHeight="1">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -28341,7 +28382,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" ht="16.5" customHeight="1">
+    <row r="956" spans="1:24" ht="16.5" customHeight="1">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -28367,7 +28408,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" ht="16.5" customHeight="1">
+    <row r="957" spans="1:24" ht="16.5" customHeight="1">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -28393,7 +28434,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" ht="16.5" customHeight="1">
+    <row r="958" spans="1:24" ht="16.5" customHeight="1">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -28419,7 +28460,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" ht="16.5" customHeight="1">
+    <row r="959" spans="1:24" ht="16.5" customHeight="1">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -28445,7 +28486,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" ht="16.5" customHeight="1">
+    <row r="960" spans="1:24" ht="16.5" customHeight="1">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -28471,7 +28512,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" ht="16.5" customHeight="1">
+    <row r="961" spans="1:24" ht="16.5" customHeight="1">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -28497,7 +28538,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" ht="16.5" customHeight="1">
+    <row r="962" spans="1:24" ht="16.5" customHeight="1">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -28523,7 +28564,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" ht="16.5" customHeight="1">
+    <row r="963" spans="1:24" ht="16.5" customHeight="1">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -28549,7 +28590,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" ht="16.5" customHeight="1">
+    <row r="964" spans="1:24" ht="16.5" customHeight="1">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -28575,7 +28616,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" ht="16.5" customHeight="1">
+    <row r="965" spans="1:24" ht="16.5" customHeight="1">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -28601,7 +28642,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" ht="16.5" customHeight="1">
+    <row r="966" spans="1:24" ht="16.5" customHeight="1">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -28627,7 +28668,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" ht="16.5" customHeight="1">
+    <row r="967" spans="1:24" ht="16.5" customHeight="1">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -28653,7 +28694,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" ht="16.5" customHeight="1">
+    <row r="968" spans="1:24" ht="16.5" customHeight="1">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -28679,7 +28720,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" ht="16.5" customHeight="1">
+    <row r="969" spans="1:24" ht="16.5" customHeight="1">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -28705,7 +28746,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" ht="16.5" customHeight="1">
+    <row r="970" spans="1:24" ht="16.5" customHeight="1">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -28731,7 +28772,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" ht="16.5" customHeight="1">
+    <row r="971" spans="1:24" ht="16.5" customHeight="1">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -28757,7 +28798,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" ht="16.5" customHeight="1">
+    <row r="972" spans="1:24" ht="16.5" customHeight="1">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -28783,7 +28824,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" ht="16.5" customHeight="1">
+    <row r="973" spans="1:24" ht="16.5" customHeight="1">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -28809,7 +28850,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" ht="16.5" customHeight="1">
+    <row r="974" spans="1:24" ht="16.5" customHeight="1">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -28835,7 +28876,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" ht="16.5" customHeight="1">
+    <row r="975" spans="1:24" ht="16.5" customHeight="1">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -28861,7 +28902,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" ht="16.5" customHeight="1">
+    <row r="976" spans="1:24" ht="16.5" customHeight="1">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -28887,7 +28928,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" ht="16.5" customHeight="1">
+    <row r="977" spans="1:24" ht="16.5" customHeight="1">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -28913,7 +28954,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" ht="16.5" customHeight="1">
+    <row r="978" spans="1:24" ht="16.5" customHeight="1">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -28939,7 +28980,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" ht="16.5" customHeight="1">
+    <row r="979" spans="1:24" ht="16.5" customHeight="1">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -28965,7 +29006,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" ht="16.5" customHeight="1">
+    <row r="980" spans="1:24" ht="16.5" customHeight="1">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -28991,7 +29032,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" ht="16.5" customHeight="1">
+    <row r="981" spans="1:24" ht="16.5" customHeight="1">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -29017,7 +29058,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" ht="16.5" customHeight="1">
+    <row r="982" spans="1:24" ht="16.5" customHeight="1">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -29043,7 +29084,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" ht="16.5" customHeight="1">
+    <row r="983" spans="1:24" ht="16.5" customHeight="1">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -29069,7 +29110,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" ht="16.5" customHeight="1">
+    <row r="984" spans="1:24" ht="16.5" customHeight="1">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -29095,7 +29136,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" ht="16.5" customHeight="1">
+    <row r="985" spans="1:24" ht="16.5" customHeight="1">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -29121,7 +29162,7 @@
       <c r="W985" s="1"/>
       <c r="X985" s="1"/>
     </row>
-    <row r="986" ht="16.5" customHeight="1">
+    <row r="986" spans="1:24" ht="16.5" customHeight="1">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -29147,7 +29188,7 @@
       <c r="W986" s="1"/>
       <c r="X986" s="1"/>
     </row>
-    <row r="987" ht="16.5" customHeight="1">
+    <row r="987" spans="1:24" ht="16.5" customHeight="1">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -29173,7 +29214,7 @@
       <c r="W987" s="1"/>
       <c r="X987" s="1"/>
     </row>
-    <row r="988" ht="16.5" customHeight="1">
+    <row r="988" spans="1:24" ht="16.5" customHeight="1">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -29199,7 +29240,7 @@
       <c r="W988" s="1"/>
       <c r="X988" s="1"/>
     </row>
-    <row r="989" ht="16.5" customHeight="1">
+    <row r="989" spans="1:24" ht="16.5" customHeight="1">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -29225,7 +29266,7 @@
       <c r="W989" s="1"/>
       <c r="X989" s="1"/>
     </row>
-    <row r="990" ht="16.5" customHeight="1">
+    <row r="990" spans="1:24" ht="16.5" customHeight="1">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -29251,7 +29292,7 @@
       <c r="W990" s="1"/>
       <c r="X990" s="1"/>
     </row>
-    <row r="991" ht="16.5" customHeight="1">
+    <row r="991" spans="1:24" ht="16.5" customHeight="1">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -29277,7 +29318,7 @@
       <c r="W991" s="1"/>
       <c r="X991" s="1"/>
     </row>
-    <row r="992" ht="16.5" customHeight="1">
+    <row r="992" spans="1:24" ht="16.5" customHeight="1">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -29303,7 +29344,7 @@
       <c r="W992" s="1"/>
       <c r="X992" s="1"/>
     </row>
-    <row r="993" ht="16.5" customHeight="1">
+    <row r="993" spans="1:24" ht="16.5" customHeight="1">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -29329,7 +29370,7 @@
       <c r="W993" s="1"/>
       <c r="X993" s="1"/>
     </row>
-    <row r="994" ht="16.5" customHeight="1">
+    <row r="994" spans="1:24" ht="16.5" customHeight="1">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -29355,7 +29396,7 @@
       <c r="W994" s="1"/>
       <c r="X994" s="1"/>
     </row>
-    <row r="995" ht="16.5" customHeight="1">
+    <row r="995" spans="1:24" ht="16.5" customHeight="1">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -29381,7 +29422,7 @@
       <c r="W995" s="1"/>
       <c r="X995" s="1"/>
     </row>
-    <row r="996" ht="16.5" customHeight="1">
+    <row r="996" spans="1:24" ht="16.5" customHeight="1">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -29407,7 +29448,7 @@
       <c r="W996" s="1"/>
       <c r="X996" s="1"/>
     </row>
-    <row r="997" ht="16.5" customHeight="1">
+    <row r="997" spans="1:24" ht="16.5" customHeight="1">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -29433,7 +29474,7 @@
       <c r="W997" s="1"/>
       <c r="X997" s="1"/>
     </row>
-    <row r="998" ht="16.5" customHeight="1">
+    <row r="998" spans="1:24" ht="16.5" customHeight="1">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -29460,9 +29501,8 @@
       <c r="X998" s="1"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>